--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Object/Player</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,9 +251,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:U8" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:U8"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:V8" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:V8"/>
+  <tableColumns count="22">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
     </tableColumn>
@@ -275,6 +287,7 @@
     <tableColumn id="24" uniqueName="24" name="DEF_LIGHT"/>
     <tableColumn id="25" uniqueName="25" name="DEF_ICE"/>
     <tableColumn id="26" uniqueName="26" name="DEF_POISON"/>
+    <tableColumn id="7" uniqueName="7" name="Prefab"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -543,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -567,9 +580,10 @@
     <col min="15" max="15" width="13.25" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="22" max="22" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +647,11 @@
       <c r="U1" t="s">
         <v>23</v>
       </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,8 +715,11 @@
       <c r="U2">
         <v>5</v>
       </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -763,8 +783,11 @@
       <c r="U3">
         <v>5</v>
       </c>
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -828,26 +851,91 @@
       <c r="U4">
         <v>5</v>
       </c>
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>600</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>150</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="L5">
+        <v>40000</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,170 +1,142 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="27030" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemSubType</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>ShowName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>MAXMP</t>
+  </si>
+  <si>
+    <t>HPREGEN</t>
+  </si>
+  <si>
+    <t>MPREGEN</t>
+  </si>
+  <si>
+    <t>ATK_VALUE</t>
+  </si>
+  <si>
+    <t>DEF_VALUE</t>
+  </si>
+  <si>
+    <t>MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>ATK_SPEED</t>
+  </si>
+  <si>
+    <t>ATK_FIRE</t>
+  </si>
+  <si>
+    <t>ATK_LIGHT</t>
+  </si>
+  <si>
+    <t>ATK_POISON</t>
+  </si>
+  <si>
+    <t>ATK_ICE</t>
+  </si>
+  <si>
+    <t>DEF_FIRE</t>
+  </si>
+  <si>
+    <t>DEF_LIGHT</t>
+  </si>
+  <si>
+    <t>DEF_ICE</t>
+  </si>
+  <si>
+    <t>DEF_POISON</t>
+  </si>
+  <si>
+    <t>Prefab</t>
   </si>
   <si>
     <t>AttackNpc1</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Player</t>
+  </si>
+  <si>
     <t>AttackNpc2</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>AttackNpc3</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>MAXMP</t>
-  </si>
-  <si>
-    <t>MAXHP</t>
-  </si>
-  <si>
-    <t>HPREGEN</t>
-  </si>
-  <si>
-    <t>MPREGEN</t>
-  </si>
-  <si>
-    <t>ATK_VALUE</t>
-  </si>
-  <si>
-    <t>DEF_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOVE_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_LIGHT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_POISON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_FIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATK_ICE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEF_LIGHT</t>
-  </si>
-  <si>
-    <t>DEF_ICE</t>
-  </si>
-  <si>
-    <t>DEF_POISON</t>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Object/Alch_plate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,8 +156,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -197,104 +184,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="ItemType" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ItemSubType" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="Level" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="ShowName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Desc" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Icon" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="CoolDownTime" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="OverlayCount" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="BuyPrice" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="SalePrice" form="unqualified" type="xsd:integer"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:V8" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:V8"/>
-  <tableColumns count="22">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="ItemSubType" name="EXP" dataDxfId="0">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ItemSubType" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Level" name="HP">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Level" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="ShowName" name="MP">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ShowName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Desc" name="Money">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Desc" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="SalePrice" name="MAXHP">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@SalePrice" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="12" name="MAXMP"/>
-    <tableColumn id="13" uniqueName="13" name="HPREGEN"/>
-    <tableColumn id="14" uniqueName="14" name="MPREGEN"/>
-    <tableColumn id="15" uniqueName="15" name="ATK_VALUE"/>
-    <tableColumn id="16" uniqueName="16" name="DEF_VALUE"/>
-    <tableColumn id="17" uniqueName="17" name="MOVE_SPEED"/>
-    <tableColumn id="18" uniqueName="18" name="ATK_SPEED"/>
-    <tableColumn id="19" uniqueName="19" name="ATK_FIRE"/>
-    <tableColumn id="20" uniqueName="20" name="ATK_LIGHT"/>
-    <tableColumn id="21" uniqueName="21" name="ATK_POISON"/>
-    <tableColumn id="22" uniqueName="22" name="ATK_ICE"/>
-    <tableColumn id="23" uniqueName="23" name="DEF_FIRE"/>
-    <tableColumn id="24" uniqueName="24" name="DEF_LIGHT"/>
-    <tableColumn id="25" uniqueName="25" name="DEF_ICE"/>
-    <tableColumn id="26" uniqueName="26" name="DEF_POISON"/>
-    <tableColumn id="7" uniqueName="7" name="Prefab"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -304,106 +206,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,161 +317,227 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="25.25" customWidth="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
@@ -580,92 +548,92 @@
     <col min="15" max="15" width="13.25" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="22" max="22" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -686,7 +654,7 @@
         <v>40</v>
       </c>
       <c r="L2">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M2">
         <v>10000</v>
@@ -716,24 +684,24 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>400</v>
@@ -754,7 +722,7 @@
         <v>60</v>
       </c>
       <c r="L3">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="M3">
         <v>10000</v>
@@ -784,24 +752,24 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -822,7 +790,7 @@
         <v>80</v>
       </c>
       <c r="L4">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="M4">
         <v>10000</v>
@@ -852,24 +820,24 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -890,7 +858,7 @@
         <v>80</v>
       </c>
       <c r="L5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="M5">
         <v>10000</v>
@@ -920,33 +888,30 @@
         <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27030" windowHeight="16485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="16485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -124,17 +128,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -156,23 +159,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -184,14 +172,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -490,6 +483,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -522,15 +516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="L2" sqref="L2:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -551,7 +544,7 @@
     <col min="22" max="22" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -654,7 +647,7 @@
         <v>40</v>
       </c>
       <c r="L2">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="M2">
         <v>10000</v>
@@ -687,7 +680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -722,7 +715,7 @@
         <v>60</v>
       </c>
       <c r="L3">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="M3">
         <v>10000</v>
@@ -755,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -790,7 +783,7 @@
         <v>80</v>
       </c>
       <c r="L4">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="M4">
         <v>10000</v>
@@ -823,7 +816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -858,7 +851,7 @@
         <v>80</v>
       </c>
       <c r="L5">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="M5">
         <v>10000</v>
@@ -891,27 +884,28 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -122,7 +122,12 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Prefabs/Object/Alch_plate</t>
+    <t>Prefabs/Object/Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Object/Male100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,7 +525,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L5"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -881,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -126,7 +126,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefabs/Object/Elves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefabs/Object/Male100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -524,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -890,10 +898,72 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>600</v>
+      </c>
+      <c r="G6">
+        <v>600</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>150</v>
+      </c>
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <v>55000</v>
+      </c>
+      <c r="M6">
+        <v>10000</v>
+      </c>
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27030" windowHeight="16485"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>ID</t>
   </si>
@@ -104,15 +99,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>Prefabs/Object/Elves</t>
+  </si>
+  <si>
+    <t>AttackNpc2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>Prefabs/Object/Player</t>
   </si>
   <si>
-    <t>AttackNpc2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>AttackNpc3</t>
   </si>
   <si>
@@ -122,27 +120,23 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Prefabs/Object/Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Object/Elves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Object/Male100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Enemy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -150,7 +144,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -172,8 +166,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -185,19 +194,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -496,7 +500,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -529,14 +532,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -557,7 +561,7 @@
     <col min="22" max="22" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -693,7 +697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -758,15 +762,15 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -775,7 +779,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -826,15 +830,15 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -843,7 +847,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -897,12 +901,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -911,7 +915,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -962,25 +966,24 @@
         <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -124,19 +129,21 @@
   </si>
   <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>AtkDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -144,8 +151,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -166,42 +180,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -500,6 +507,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -532,15 +540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -558,10 +565,11 @@
     <col min="15" max="15" width="13.25" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="22" max="22" width="32.125" customWidth="1"/>
+    <col min="21" max="21" width="30.375" customWidth="1"/>
+    <col min="22" max="24" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,10 +634,16 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -693,11 +707,17 @@
       <c r="U2">
         <v>5</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
         <v>25</v>
       </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -761,11 +781,17 @@
       <c r="U3">
         <v>5</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
         <v>28</v>
       </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -829,11 +855,17 @@
       <c r="U4">
         <v>5</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
         <v>28</v>
       </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -897,11 +929,17 @@
       <c r="U5">
         <v>5</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
         <v>32</v>
       </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -965,25 +1003,32 @@
       <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
         <v>32</v>
       </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +20,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -124,19 +129,17 @@
   </si>
   <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>DropPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -144,7 +147,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -166,23 +169,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -194,14 +182,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -500,6 +493,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -532,15 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -561,7 +554,7 @@
     <col min="22" max="22" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,8 +621,11 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -697,7 +693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -765,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -833,7 +829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -901,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -969,20 +965,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -104,16 +104,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>Prefabs/Object/Elves</t>
-  </si>
-  <si>
     <t>AttackNpc2</t>
   </si>
   <si>
     <t>40</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Player</t>
   </si>
   <si>
     <t>AttackNpc3</t>
@@ -529,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,6 +545,7 @@
     <col min="15" max="15" width="13.25" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="14.25" customWidth="1"/>
+    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
@@ -690,15 +685,15 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -707,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>400</v>
@@ -758,15 +753,15 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -775,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -826,15 +821,15 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -843,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -894,15 +889,15 @@
         <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -911,7 +906,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -962,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -125,7 +125,27 @@
     <t>Enemy</t>
   </si>
   <si>
-    <t>DropPack</t>
+    <t>DropPackList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tkDis</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -143,6 +163,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -168,11 +195,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,10 +576,12 @@
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="14.25" customWidth="1"/>
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.125" customWidth="1"/>
+    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="25" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,10 +649,16 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -687,8 +725,14 @@
       <c r="V2" t="s">
         <v>30</v>
       </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -755,8 +799,14 @@
       <c r="V3" t="s">
         <v>30</v>
       </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -823,8 +873,14 @@
       <c r="V4" t="s">
         <v>30</v>
       </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -891,8 +947,14 @@
       <c r="V5" t="s">
         <v>30</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -959,14 +1021,20 @@
       <c r="V6" t="s">
         <v>30</v>
       </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -146,6 +146,10 @@
       </rPr>
       <t>tkDis</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,24 +568,24 @@
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="15.125" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="16.75" customWidth="1"/>
-    <col min="15" max="15" width="13.25" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="14.25" customWidth="1"/>
-    <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="25" customWidth="1"/>
-    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="9" max="9" width="25.25" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="14.25" customWidth="1"/>
+    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="25" customWidth="1"/>
+    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,64 +605,67 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -681,26 +688,26 @@
         <v>200</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>50</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>55000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10000</v>
       </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
       <c r="O2">
         <v>10</v>
       </c>
@@ -711,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S2">
         <v>5</v>
@@ -722,17 +729,20 @@
       <c r="U2">
         <v>5</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2" t="s">
         <v>30</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -755,26 +765,26 @@
         <v>400</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>100</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>60</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>55000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10000</v>
       </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
       <c r="O3">
         <v>10</v>
       </c>
@@ -785,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S3">
         <v>5</v>
@@ -796,17 +806,20 @@
       <c r="U3">
         <v>5</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3" t="s">
         <v>30</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -829,26 +842,26 @@
         <v>600</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>150</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>80</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>55000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10000</v>
       </c>
-      <c r="N4">
-        <v>10</v>
-      </c>
       <c r="O4">
         <v>10</v>
       </c>
@@ -859,7 +872,7 @@
         <v>10</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>5</v>
@@ -870,17 +883,20 @@
       <c r="U4">
         <v>5</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4" t="s">
         <v>30</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -903,26 +919,26 @@
         <v>600</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>150</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>80</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>55000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>10000</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
       <c r="O5">
         <v>10</v>
       </c>
@@ -933,7 +949,7 @@
         <v>10</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -944,17 +960,20 @@
       <c r="U5">
         <v>5</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5" t="s">
         <v>30</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -977,26 +996,26 @@
         <v>600</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>150</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>80</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>55000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10000</v>
       </c>
-      <c r="N6">
-        <v>10</v>
-      </c>
       <c r="O6">
         <v>10</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>10</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -1018,23 +1037,26 @@
       <c r="U6">
         <v>5</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
         <v>30</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -18,6 +18,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>杨鹏博</author>
+  </authors>
+  <commentList>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">可填入英文分号间隔的奖励包(掉落包和奖励包公用)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
@@ -27,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -152,12 +176,15 @@
     <t>MAXHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DropBag_1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -174,6 +201,12 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -554,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,6 +774,9 @@
       <c r="Y2">
         <v>20</v>
       </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -818,6 +854,9 @@
       <c r="Y3">
         <v>20</v>
       </c>
+      <c r="Z3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -895,6 +934,9 @@
       <c r="Y4">
         <v>20</v>
       </c>
+      <c r="Z4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -972,6 +1014,9 @@
       <c r="Y5">
         <v>20</v>
       </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1048,6 +1093,9 @@
       </c>
       <c r="Y6">
         <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.15">
@@ -1067,5 +1115,6 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>DropBag_1</t>
+  </si>
+  <si>
+    <t>SkillIDRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -588,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,9 +620,10 @@
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="25" customWidth="1"/>
     <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +702,11 @@
       <c r="Z1" t="s">
         <v>32</v>
       </c>
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -778,7 +786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -858,7 +866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -938,7 +946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
@@ -1018,7 +1026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1098,13 +1106,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,14 +39,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +66,9 @@
     <t>SalePrice</t>
   </si>
   <si>
+    <t>MAXHP</t>
+  </si>
+  <si>
     <t>MAXMP</t>
   </si>
   <si>
@@ -119,45 +117,16 @@
     <t>Prefab</t>
   </si>
   <si>
-    <t>AttackNpc1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>AttackNpc2</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>AttackNpc3</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Male100</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>DropPackList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -165,30 +134,62 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tkDis</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAXHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropPackList</t>
+  </si>
+  <si>
+    <t>SkillIDRef</t>
+  </si>
+  <si>
+    <t>AttackNpc1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Alch_plate</t>
   </si>
   <si>
     <t>DropBag_1</t>
   </si>
   <si>
-    <t>SkillIDRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>AttackNpc2</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>AttackNpc3</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Enemy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -196,20 +197,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -231,8 +225,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -243,23 +252,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -558,7 +562,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -591,14 +594,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AA8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -616,14 +620,13 @@
     <col min="16" max="16" width="13.25" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="14.25" customWidth="1"/>
-    <col min="22" max="22" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="25" customWidth="1"/>
-    <col min="26" max="26" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="25" width="25" customWidth="1"/>
+    <col min="26" max="26" width="13.875" customWidth="1"/>
     <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,84 +646,84 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -783,24 +786,24 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>400</v>
@@ -863,24 +866,24 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -943,24 +946,24 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -1023,24 +1026,24 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -1103,26 +1106,25 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,14 +44,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -173,23 +178,22 @@
     <t>60</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
     <t>Enemy</t>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_0_0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -203,7 +207,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -225,23 +235,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -256,14 +251,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -562,6 +562,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -594,15 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -621,12 +621,13 @@
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="14.25" customWidth="1"/>
     <col min="22" max="22" width="11.625" customWidth="1"/>
-    <col min="23" max="25" width="25" customWidth="1"/>
+    <col min="23" max="23" width="63.375" customWidth="1"/>
+    <col min="24" max="25" width="25" customWidth="1"/>
     <col min="26" max="26" width="13.875" customWidth="1"/>
     <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -789,7 +790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -869,7 +870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -949,9 +950,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -1029,9 +1030,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -1109,21 +1110,96 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>600</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>600</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>55000</v>
+      </c>
+      <c r="N7">
+        <v>10000</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvsheng.huang\Desktop\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,14 +39,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>ID</t>
   </si>
@@ -151,21 +146,87 @@
     <t>SkillIDRef</t>
   </si>
   <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Alch_plate</t>
+  </si>
+  <si>
+    <t>DropBag_1</t>
+  </si>
+  <si>
+    <t>Player_0_0</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/ActionHero</t>
+  </si>
+  <si>
+    <t>Player_0_1</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/ChopperPilot</t>
+  </si>
+  <si>
+    <t>Player_0_2</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Hero</t>
+  </si>
+  <si>
+    <t>Player_0_3</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/Knight</t>
+  </si>
+  <si>
+    <t>Player_0_4</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/VietcongSoldier</t>
+  </si>
+  <si>
+    <t>Player_1_0</t>
+  </si>
+  <si>
+    <t>Player_1_1</t>
+  </si>
+  <si>
+    <t>Player_1_2</t>
+  </si>
+  <si>
+    <t>Player_1_3</t>
+  </si>
+  <si>
+    <t>Player_1_4</t>
+  </si>
+  <si>
+    <t>Player_2_0</t>
+  </si>
+  <si>
+    <t>Player_2_1</t>
+  </si>
+  <si>
+    <t>Player_2_2</t>
+  </si>
+  <si>
+    <t>Player_2_3</t>
+  </si>
+  <si>
+    <t>Player_2_4</t>
+  </si>
+  <si>
     <t>AttackNpc1</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Prefabs/Object/Alch_plate</t>
-  </si>
-  <si>
-    <t>DropBag_1</t>
-  </si>
-  <si>
     <t>AttackNpc2</t>
   </si>
   <si>
@@ -175,25 +236,20 @@
     <t>AttackNpc3</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>Enemy</t>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_0_0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -201,19 +257,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -235,8 +279,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -247,23 +306,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -562,7 +616,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -595,14 +648,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -627,7 +681,7 @@
     <col min="27" max="27" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -727,13 +781,13 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -742,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M2">
         <v>55000</v>
@@ -790,12 +844,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="1" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -804,16 +858,16 @@
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -822,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M3">
         <v>55000</v>
@@ -858,10 +912,10 @@
         <v>5</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>20</v>
@@ -870,12 +924,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="1" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -884,7 +938,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -938,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>20</v>
@@ -950,12 +1004,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="1" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -964,7 +1018,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -1018,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1030,12 +1084,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="1" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1044,7 +1098,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -1098,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>20</v>
@@ -1110,12 +1164,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="1" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1124,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>600</v>
@@ -1178,10 +1232,10 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>20</v>
@@ -1190,16 +1244,1129 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="8" customFormat="1" spans="1:26">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+      <c r="G8">
+        <v>600</v>
+      </c>
+      <c r="H8">
+        <v>600</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>55000</v>
+      </c>
+      <c r="N8">
+        <v>10000</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:26">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>600</v>
+      </c>
+      <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9">
+        <v>600</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>150</v>
+      </c>
+      <c r="L9">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>55000</v>
+      </c>
+      <c r="N9">
+        <v>10000</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10">
+        <v>600</v>
+      </c>
+      <c r="H10">
+        <v>600</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>150</v>
+      </c>
+      <c r="L10">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>55000</v>
+      </c>
+      <c r="N10">
+        <v>10000</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:26">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>600</v>
+      </c>
+      <c r="G11">
+        <v>600</v>
+      </c>
+      <c r="H11">
+        <v>600</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>55000</v>
+      </c>
+      <c r="N11">
+        <v>10000</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:26">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>600</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>150</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>55000</v>
+      </c>
+      <c r="N12">
+        <v>10000</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:26">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>600</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>600</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>150</v>
+      </c>
+      <c r="L13">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>55000</v>
+      </c>
+      <c r="N13">
+        <v>10000</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>10</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:26">
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>600</v>
+      </c>
+      <c r="G14">
+        <v>600</v>
+      </c>
+      <c r="H14">
+        <v>600</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>55000</v>
+      </c>
+      <c r="N14">
+        <v>10000</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>5</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>20</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:26">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>600</v>
+      </c>
+      <c r="G15">
+        <v>600</v>
+      </c>
+      <c r="H15">
+        <v>600</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>150</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>55000</v>
+      </c>
+      <c r="N15">
+        <v>10000</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>20</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:26">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>600</v>
+      </c>
+      <c r="G16">
+        <v>600</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>150</v>
+      </c>
+      <c r="L16">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>55000</v>
+      </c>
+      <c r="N16">
+        <v>10000</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>20</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:26">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>600</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+      <c r="H17">
+        <v>600</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+      <c r="L17">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>55000</v>
+      </c>
+      <c r="N17">
+        <v>10000</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="P17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>5</v>
+      </c>
+      <c r="W17" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>200</v>
+      </c>
+      <c r="H18">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>55000</v>
+      </c>
+      <c r="N18">
+        <v>10000</v>
+      </c>
+      <c r="O18">
+        <v>10</v>
+      </c>
+      <c r="P18">
+        <v>10</v>
+      </c>
+      <c r="Q18">
+        <v>10</v>
+      </c>
+      <c r="R18">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>20</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
+        <v>400</v>
+      </c>
+      <c r="H19">
+        <v>400</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <v>55000</v>
+      </c>
+      <c r="N19">
+        <v>10000</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+      <c r="P19">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="R19">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>600</v>
+      </c>
+      <c r="G20">
+        <v>600</v>
+      </c>
+      <c r="H20">
+        <v>600</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>150</v>
+      </c>
+      <c r="L20">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>55000</v>
+      </c>
+      <c r="N20">
+        <v>10000</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20">
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>5</v>
+      </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>20</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>600</v>
+      </c>
+      <c r="G21">
+        <v>600</v>
+      </c>
+      <c r="H21">
+        <v>600</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>150</v>
+      </c>
+      <c r="L21">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>55000</v>
+      </c>
+      <c r="N21">
+        <v>10000</v>
+      </c>
+      <c r="O21">
+        <v>10</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>ID</t>
   </si>
@@ -146,6 +146,9 @@
     <t>SkillIDRef</t>
   </si>
   <si>
+    <t>Height</t>
+  </si>
+  <si>
     <t>Default</t>
   </si>
   <si>
@@ -245,8 +248,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="2">
@@ -650,10 +653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -679,9 +682,10 @@
     <col min="24" max="25" width="25" customWidth="1"/>
     <col min="26" max="26" width="13.875" customWidth="1"/>
     <col min="27" max="27" width="14.75" customWidth="1"/>
+    <col min="28" max="28" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -763,22 +767,25 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>600</v>
@@ -832,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2">
         <v>2</v>
@@ -841,24 +848,27 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:26">
+    <row r="3" customFormat="1" spans="1:28">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>600</v>
@@ -912,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="W3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -921,24 +931,27 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:26">
+    <row r="4" customFormat="1" spans="1:28">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>600</v>
@@ -992,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1001,24 +1014,27 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:26">
+    <row r="5" customFormat="1" spans="1:28">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>600</v>
@@ -1072,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1081,24 +1097,27 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:26">
+    <row r="6" customFormat="1" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>600</v>
@@ -1152,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1161,24 +1180,27 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:26">
+    <row r="7" customFormat="1" spans="1:28">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>600</v>
@@ -1232,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1241,24 +1263,27 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:26">
+    <row r="8" customFormat="1" spans="1:28">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>600</v>
@@ -1312,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1321,24 +1346,27 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:26">
+    <row r="9" customFormat="1" spans="1:28">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>600</v>
@@ -1392,7 +1420,7 @@
         <v>5</v>
       </c>
       <c r="W9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1401,24 +1429,27 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:26">
+    <row r="10" customFormat="1" spans="1:28">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>600</v>
@@ -1472,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="W10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1481,24 +1512,27 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:26">
+    <row r="11" customFormat="1" spans="1:28">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>600</v>
@@ -1552,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1561,24 +1595,27 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:26">
+    <row r="12" customFormat="1" spans="1:28">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>600</v>
@@ -1632,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -1641,24 +1678,27 @@
         <v>20</v>
       </c>
       <c r="Z12" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:26">
+    <row r="13" customFormat="1" spans="1:28">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>600</v>
@@ -1712,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="W13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -1721,24 +1761,27 @@
         <v>20</v>
       </c>
       <c r="Z13" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB13">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:26">
+    <row r="14" customFormat="1" spans="1:28">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>600</v>
@@ -1792,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="W14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -1801,24 +1844,27 @@
         <v>20</v>
       </c>
       <c r="Z14" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB14">
+        <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:26">
+    <row r="15" customFormat="1" spans="1:28">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>600</v>
@@ -1872,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="W15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -1881,24 +1927,27 @@
         <v>20</v>
       </c>
       <c r="Z15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB15">
+        <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:26">
+    <row r="16" customFormat="1" spans="1:28">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>600</v>
@@ -1952,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="W16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -1961,24 +2010,27 @@
         <v>20</v>
       </c>
       <c r="Z16" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:26">
+    <row r="17" customFormat="1" spans="1:28">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>600</v>
@@ -2032,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="W17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2041,24 +2093,27 @@
         <v>20</v>
       </c>
       <c r="Z17" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>200</v>
@@ -2112,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="W18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X18">
         <v>2</v>
@@ -2121,24 +2176,27 @@
         <v>20</v>
       </c>
       <c r="Z18" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB18">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:28">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>400</v>
@@ -2192,7 +2250,7 @@
         <v>5</v>
       </c>
       <c r="W19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -2201,24 +2259,27 @@
         <v>20</v>
       </c>
       <c r="Z19" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>600</v>
@@ -2272,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X20">
         <v>2</v>
@@ -2281,24 +2342,27 @@
         <v>20</v>
       </c>
       <c r="Z20" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB20">
+        <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>600</v>
@@ -2352,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X21">
         <v>2</v>
@@ -2361,7 +2425,10 @@
         <v>20</v>
       </c>
       <c r="Z21" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AB21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19455" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,14 +22,13 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">可填入英文分号间隔的奖励包(掉落包和奖励包公用)
@@ -48,14 +42,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>ID</t>
   </si>
@@ -74,7 +68,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>A</t>
@@ -84,7 +77,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>tkDis</t>
@@ -100,6 +92,12 @@
     <t>Height</t>
   </si>
   <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>ConsumeData</t>
+  </si>
+  <si>
     <t>Default</t>
   </si>
   <si>
@@ -109,154 +107,440 @@
     <t>DropBag_1</t>
   </si>
   <si>
+    <t>PlayerAtt1</t>
+  </si>
+  <si>
+    <t>ConsumeData_1</t>
+  </si>
+  <si>
     <t>Player_0_0</t>
   </si>
   <si>
     <t>Prefabs/Object/ActionHero</t>
   </si>
   <si>
+    <t>PlayerAtt2</t>
+  </si>
+  <si>
     <t>Player_0_1</t>
   </si>
   <si>
     <t>Prefabs/Object/ChopperPilot</t>
   </si>
   <si>
+    <t>PlayerAtt3</t>
+  </si>
+  <si>
     <t>Player_0_2</t>
   </si>
   <si>
     <t>Prefabs/Object/Hero</t>
   </si>
   <si>
+    <t>PlayerAtt4</t>
+  </si>
+  <si>
     <t>Player_0_3</t>
   </si>
   <si>
     <t>Prefabs/Object/Knight</t>
   </si>
   <si>
+    <t>PlayerAtt5</t>
+  </si>
+  <si>
     <t>Player_0_4</t>
   </si>
   <si>
     <t>Prefabs/Object/VietcongSoldier</t>
   </si>
   <si>
+    <t>PlayerAtt6</t>
+  </si>
+  <si>
     <t>Player_1_0</t>
   </si>
   <si>
+    <t>PlayerAtt7</t>
+  </si>
+  <si>
     <t>Player_1_1</t>
   </si>
   <si>
+    <t>PlayerAtt8</t>
+  </si>
+  <si>
     <t>Player_1_2</t>
   </si>
   <si>
+    <t>PlayerAtt9</t>
+  </si>
+  <si>
     <t>Player_1_3</t>
   </si>
   <si>
+    <t>PlayerAtt10</t>
+  </si>
+  <si>
     <t>Player_1_4</t>
   </si>
   <si>
+    <t>PlayerAtt11</t>
+  </si>
+  <si>
     <t>Player_2_0</t>
   </si>
   <si>
+    <t>PlayerAtt12</t>
+  </si>
+  <si>
     <t>Player_2_1</t>
   </si>
   <si>
+    <t>PlayerAtt13</t>
+  </si>
+  <si>
     <t>Player_2_2</t>
   </si>
   <si>
+    <t>PlayerAtt14</t>
+  </si>
+  <si>
     <t>Player_2_3</t>
   </si>
   <si>
+    <t>PlayerAtt15</t>
+  </si>
+  <si>
     <t>Player_2_4</t>
   </si>
   <si>
+    <t>PlayerAtt16</t>
+  </si>
+  <si>
     <t>AttackNpc1</t>
   </si>
   <si>
+    <t>PlayerAtt17</t>
+  </si>
+  <si>
     <t>AttackNpc2</t>
   </si>
   <si>
+    <t>PlayerAtt18</t>
+  </si>
+  <si>
     <t>AttackNpc3</t>
   </si>
   <si>
+    <t>PlayerAtt19</t>
+  </si>
+  <si>
     <t>Enemy</t>
   </si>
   <si>
-    <t>EffectData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConsumeData</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerAtt1</t>
-  </si>
-  <si>
-    <t>PlayerAtt2</t>
-  </si>
-  <si>
-    <t>PlayerAtt3</t>
-  </si>
-  <si>
-    <t>PlayerAtt4</t>
-  </si>
-  <si>
-    <t>PlayerAtt5</t>
-  </si>
-  <si>
-    <t>PlayerAtt6</t>
-  </si>
-  <si>
-    <t>PlayerAtt7</t>
-  </si>
-  <si>
-    <t>PlayerAtt8</t>
-  </si>
-  <si>
-    <t>PlayerAtt9</t>
-  </si>
-  <si>
-    <t>PlayerAtt10</t>
-  </si>
-  <si>
-    <t>PlayerAtt11</t>
-  </si>
-  <si>
-    <t>PlayerAtt12</t>
-  </si>
-  <si>
-    <t>PlayerAtt13</t>
-  </si>
-  <si>
-    <t>PlayerAtt14</t>
-  </si>
-  <si>
-    <t>PlayerAtt15</t>
-  </si>
-  <si>
-    <t>PlayerAtt16</t>
-  </si>
-  <si>
-    <t>PlayerAtt17</t>
-  </si>
-  <si>
-    <t>PlayerAtt18</t>
-  </si>
-  <si>
-    <t>PlayerAtt19</t>
-  </si>
-  <si>
     <t>PlayerAtt20</t>
   </si>
   <si>
-    <t>ConsumeData_1</t>
+    <t>PlantMonster-Red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/PlantMonster-Red</t>
+  </si>
+  <si>
+    <t>PlayerAtt21</t>
+  </si>
+  <si>
+    <t>PlantMonster-Purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/PlantMonster-Purple</t>
+  </si>
+  <si>
+    <t>PlayerAtt22</t>
+  </si>
+  <si>
+    <t>PlantMonster-Brown</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/PlantMonster-Brown</t>
+  </si>
+  <si>
+    <t>PlayerAtt23</t>
+  </si>
+  <si>
+    <t>PlantMonster-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/PlantMonster-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt24</t>
+  </si>
+  <si>
+    <t>Mushroom Monster-Purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Mushroom Monster-Purple</t>
+  </si>
+  <si>
+    <t>PlayerAtt25</t>
+  </si>
+  <si>
+    <t>Mushroom Monster-Pink</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Mushroom Monster-Pink</t>
+  </si>
+  <si>
+    <t>PlayerAtt26</t>
+  </si>
+  <si>
+    <t>Mushroom Monster-Green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Mushroom Monster-Green</t>
+  </si>
+  <si>
+    <t>PlayerAtt27</t>
+  </si>
+  <si>
+    <t>Mushroom Monster-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Mushroom Monster-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt28</t>
+  </si>
+  <si>
+    <t>MonsterHornet-Yellow</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MonsterHornet-Yellow</t>
+  </si>
+  <si>
+    <t>PlayerAtt29</t>
+  </si>
+  <si>
+    <t>MonsterHornet-Red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MonsterHornet-Red</t>
+  </si>
+  <si>
+    <t>PlayerAtt30</t>
+  </si>
+  <si>
+    <t>MonsterHornet-Green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MonsterHornet-Green</t>
+  </si>
+  <si>
+    <t>PlayerAtt31</t>
+  </si>
+  <si>
+    <t>MonsterHornet-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MonsterHornet-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt32</t>
+  </si>
+  <si>
+    <t>Monster Cat Bat-Red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Monster Cat Bat-Red</t>
+  </si>
+  <si>
+    <t>PlayerAtt33</t>
+  </si>
+  <si>
+    <t>Monster Cat Bat-Purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Monster Cat Bat-Purple</t>
+  </si>
+  <si>
+    <t>PlayerAtt34</t>
+  </si>
+  <si>
+    <t>Monster Cat Bat-Grey</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Monster Cat Bat-Grey</t>
+  </si>
+  <si>
+    <t>PlayerAtt35</t>
+  </si>
+  <si>
+    <t>Monster Cat Bat-Brown</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Monster Cat Bat-Brown</t>
+  </si>
+  <si>
+    <t>PlayerAtt36</t>
+  </si>
+  <si>
+    <t>MaskedOrc-Grey</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MaskedOrc-Grey</t>
+  </si>
+  <si>
+    <t>PlayerAtt37</t>
+  </si>
+  <si>
+    <t>MaskedOrc-Green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MaskedOrc-Green</t>
+  </si>
+  <si>
+    <t>PlayerAtt38</t>
+  </si>
+  <si>
+    <t>MaskedOrc-Brown</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MaskedOrc-Brown</t>
+  </si>
+  <si>
+    <t>PlayerAtt39</t>
+  </si>
+  <si>
+    <t>MaskedOrc-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/MaskedOrc-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt40</t>
+  </si>
+  <si>
+    <t>Magma Demon-Purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Magma Demon-Purple</t>
+  </si>
+  <si>
+    <t>PlayerAtt41</t>
+  </si>
+  <si>
+    <t>Magma Demon-Orange</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Magma Demon-Orange</t>
+  </si>
+  <si>
+    <t>PlayerAtt42</t>
+  </si>
+  <si>
+    <t>Magma Demon-Green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Magma Demon-Green</t>
+  </si>
+  <si>
+    <t>PlayerAtt43</t>
+  </si>
+  <si>
+    <t>Magma Demon-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/Magma Demon-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt44</t>
+  </si>
+  <si>
+    <t>FlowerMonster-Red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/FlowerMonster-Red</t>
+  </si>
+  <si>
+    <t>PlayerAtt45</t>
+  </si>
+  <si>
+    <t>FlowerMonster-Purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/FlowerMonster-Purple</t>
+  </si>
+  <si>
+    <t>PlayerAtt46</t>
+  </si>
+  <si>
+    <t>FlowerMonster-Brown</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/FlowerMonster-Brown</t>
+  </si>
+  <si>
+    <t>PlayerAtt47</t>
+  </si>
+  <si>
+    <t>FlowerMonster-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/FlowerMonster-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt48</t>
+  </si>
+  <si>
+    <t>CrawlingBug-Red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/CrawlingBug-Red</t>
+  </si>
+  <si>
+    <t>PlayerAtt49</t>
+  </si>
+  <si>
+    <t>CrawlingBug-Purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/CrawlingBug-Purple</t>
+  </si>
+  <si>
+    <t>PlayerAtt50</t>
+  </si>
+  <si>
+    <t>CrawlingBug-Green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/CrawlingBug-Green</t>
+  </si>
+  <si>
+    <t>PlayerAtt51</t>
+  </si>
+  <si>
+    <t>CrawlingBug-Blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/CrawlingBug-Blue</t>
+  </si>
+  <si>
+    <t>PlayerAtt52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -265,32 +549,163 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,8 +718,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -312,9 +913,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -332,47 +1175,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -422,71 +1275,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,18 +1557,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="41.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="48.875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
@@ -724,7 +1578,7 @@
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -750,21 +1604,21 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -773,27 +1627,27 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -802,27 +1656,27 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -831,27 +1685,27 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -860,27 +1714,27 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -889,27 +1743,27 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -918,27 +1772,27 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -947,27 +1801,27 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -976,27 +1830,27 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1005,27 +1859,27 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1034,27 +1888,27 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1063,27 +1917,27 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1092,27 +1946,27 @@
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1121,27 +1975,27 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1150,27 +2004,27 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1179,27 +2033,27 @@
         <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1208,85 +2062,85 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1295,7 +2149,7 @@
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1304,42 +2158,969 @@
         <v>55</v>
       </c>
       <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" t="s">
-        <v>57</v>
+      <c r="C35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t>ID</t>
   </si>
@@ -529,6 +529,162 @@
   <si>
     <t>PlayerAtt52</t>
   </si>
+  <si>
+    <t>skeleton_archer_blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_archer_blue</t>
+  </si>
+  <si>
+    <t>skeleton_archer_green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_archer_green</t>
+  </si>
+  <si>
+    <t>skeleton_archer_purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_archer_purple</t>
+  </si>
+  <si>
+    <t>skeleton_archer_red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_archer_red</t>
+  </si>
+  <si>
+    <t>skeleton_archer_teal</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_archer_teal</t>
+  </si>
+  <si>
+    <t>skeleton_archer_yellow</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_archer_yellow</t>
+  </si>
+  <si>
+    <t>skeleton_tom_angry</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_tom_angry</t>
+  </si>
+  <si>
+    <t>skeleton_tom_happy</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_tom_happy</t>
+  </si>
+  <si>
+    <t>skeleton_king_blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_king_blue</t>
+  </si>
+  <si>
+    <t>skeleton_king_green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_king_green</t>
+  </si>
+  <si>
+    <t>skeleton_king_purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_king_purple</t>
+  </si>
+  <si>
+    <t>skeleton_king_red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_king_red</t>
+  </si>
+  <si>
+    <t>skeleton_king_teal</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_king_teal</t>
+  </si>
+  <si>
+    <t>skeleton_king_yellow</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_king_yellow</t>
+  </si>
+  <si>
+    <t>skeleton_mage_blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_mage_blue</t>
+  </si>
+  <si>
+    <t>skeleton_mage_green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_mage_green</t>
+  </si>
+  <si>
+    <t>skeleton_mage_purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_mage_purple</t>
+  </si>
+  <si>
+    <t>skeleton_mage_red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_mage_red</t>
+  </si>
+  <si>
+    <t>skeleton_mage_teal</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_mage_teal</t>
+  </si>
+  <si>
+    <t>skeleton_mage_yellow</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_mage_yellow</t>
+  </si>
+  <si>
+    <t>skeleton_warrior_blue</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_warrior_blue</t>
+  </si>
+  <si>
+    <t>skeleton_warrior_green</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_warrior_green</t>
+  </si>
+  <si>
+    <t>skeleton_warrior_purple</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_warrior_purple</t>
+  </si>
+  <si>
+    <t>skeleton_warrior_red</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_warrior_red</t>
+  </si>
+  <si>
+    <t>skeleton_warrior_teal</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_warrior_teal</t>
+  </si>
+  <si>
+    <t>skeleton_warrior_yellow</t>
+  </si>
+  <si>
+    <t>Prefabs/Object/NPC/skeleton_warrior_yellow</t>
+  </si>
 </sst>
 </file>
 
@@ -540,7 +696,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -549,14 +705,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,9 +747,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,8 +786,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,89 +854,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -720,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +882,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,19 +948,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,97 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +1038,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,26 +1064,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,9 +1099,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,17 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1011,153 +1146,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1559,10 +1709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F53"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3118,6 +3268,685 @@
         <v>14</v>
       </c>
     </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>20</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="C73" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,14 +47,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="285">
   <si>
     <t>ID</t>
   </si>
@@ -685,18 +690,251 @@
   <si>
     <t>Prefabs/Object/NPC/skeleton_warrior_yellow</t>
   </si>
+  <si>
+    <t>ShowName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowName_2</t>
+  </si>
+  <si>
+    <t>ShowName_3</t>
+  </si>
+  <si>
+    <t>ShowName_4</t>
+  </si>
+  <si>
+    <t>ShowName_5</t>
+  </si>
+  <si>
+    <t>ShowName_6</t>
+  </si>
+  <si>
+    <t>ShowName_7</t>
+  </si>
+  <si>
+    <t>ShowName_8</t>
+  </si>
+  <si>
+    <t>ShowName_9</t>
+  </si>
+  <si>
+    <t>ShowName_10</t>
+  </si>
+  <si>
+    <t>ShowName_11</t>
+  </si>
+  <si>
+    <t>ShowName_12</t>
+  </si>
+  <si>
+    <t>ShowName_13</t>
+  </si>
+  <si>
+    <t>ShowName_14</t>
+  </si>
+  <si>
+    <t>ShowName_15</t>
+  </si>
+  <si>
+    <t>ShowName_16</t>
+  </si>
+  <si>
+    <t>ShowName_17</t>
+  </si>
+  <si>
+    <t>ShowName_18</t>
+  </si>
+  <si>
+    <t>ShowName_19</t>
+  </si>
+  <si>
+    <t>ShowName_20</t>
+  </si>
+  <si>
+    <t>ShowName_21</t>
+  </si>
+  <si>
+    <t>ShowName_22</t>
+  </si>
+  <si>
+    <t>ShowName_23</t>
+  </si>
+  <si>
+    <t>ShowName_24</t>
+  </si>
+  <si>
+    <t>ShowName_25</t>
+  </si>
+  <si>
+    <t>ShowName_26</t>
+  </si>
+  <si>
+    <t>ShowName_27</t>
+  </si>
+  <si>
+    <t>ShowName_28</t>
+  </si>
+  <si>
+    <t>ShowName_29</t>
+  </si>
+  <si>
+    <t>ShowName_30</t>
+  </si>
+  <si>
+    <t>ShowName_31</t>
+  </si>
+  <si>
+    <t>ShowName_32</t>
+  </si>
+  <si>
+    <t>ShowName_33</t>
+  </si>
+  <si>
+    <t>ShowName_34</t>
+  </si>
+  <si>
+    <t>ShowName_35</t>
+  </si>
+  <si>
+    <t>ShowName_36</t>
+  </si>
+  <si>
+    <t>ShowName_37</t>
+  </si>
+  <si>
+    <t>ShowName_38</t>
+  </si>
+  <si>
+    <t>ShowName_39</t>
+  </si>
+  <si>
+    <t>ShowName_40</t>
+  </si>
+  <si>
+    <t>ShowName_41</t>
+  </si>
+  <si>
+    <t>ShowName_42</t>
+  </si>
+  <si>
+    <t>ShowName_43</t>
+  </si>
+  <si>
+    <t>ShowName_44</t>
+  </si>
+  <si>
+    <t>ShowName_45</t>
+  </si>
+  <si>
+    <t>ShowName_46</t>
+  </si>
+  <si>
+    <t>ShowName_47</t>
+  </si>
+  <si>
+    <t>ShowName_48</t>
+  </si>
+  <si>
+    <t>ShowName_49</t>
+  </si>
+  <si>
+    <t>ShowName_50</t>
+  </si>
+  <si>
+    <t>ShowName_51</t>
+  </si>
+  <si>
+    <t>ShowName_52</t>
+  </si>
+  <si>
+    <t>ShowName_53</t>
+  </si>
+  <si>
+    <t>ShowName_54</t>
+  </si>
+  <si>
+    <t>ShowName_55</t>
+  </si>
+  <si>
+    <t>ShowName_56</t>
+  </si>
+  <si>
+    <t>ShowName_57</t>
+  </si>
+  <si>
+    <t>ShowName_58</t>
+  </si>
+  <si>
+    <t>ShowName_59</t>
+  </si>
+  <si>
+    <t>ShowName_60</t>
+  </si>
+  <si>
+    <t>ShowName_61</t>
+  </si>
+  <si>
+    <t>ShowName_62</t>
+  </si>
+  <si>
+    <t>ShowName_63</t>
+  </si>
+  <si>
+    <t>ShowName_64</t>
+  </si>
+  <si>
+    <t>ShowName_65</t>
+  </si>
+  <si>
+    <t>ShowName_66</t>
+  </si>
+  <si>
+    <t>ShowName_67</t>
+  </si>
+  <si>
+    <t>ShowName_68</t>
+  </si>
+  <si>
+    <t>ShowName_69</t>
+  </si>
+  <si>
+    <t>ShowName_70</t>
+  </si>
+  <si>
+    <t>ShowName_71</t>
+  </si>
+  <si>
+    <t>ShowName_72</t>
+  </si>
+  <si>
+    <t>ShowName_73</t>
+  </si>
+  <si>
+    <t>ShowName_74</t>
+  </si>
+  <si>
+    <t>ShowName_75</t>
+  </si>
+  <si>
+    <t>ShowName_76</t>
+  </si>
+  <si>
+    <t>ShowName_77</t>
+  </si>
+  <si>
+    <t>ShowName_78</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -704,158 +942,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -868,194 +966,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1063,251 +975,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,57 +995,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1707,15 +1367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:J79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53:J79"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="41.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -1726,9 +1385,10 @@
     <col min="7" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1759,8 +1419,11 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1788,8 +1451,11 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1817,8 +1483,11 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1846,8 +1515,11 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1875,8 +1547,11 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,8 +1579,11 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,8 +1611,11 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1962,8 +1643,11 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1991,8 +1675,11 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -2020,8 +1707,11 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2049,8 +1739,11 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -2078,8 +1771,11 @@
       <c r="J12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2107,8 +1803,11 @@
       <c r="J13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +1835,11 @@
       <c r="J14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2165,8 +1867,11 @@
       <c r="J15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2194,8 +1899,11 @@
       <c r="J16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2223,8 +1931,11 @@
       <c r="J17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2252,8 +1963,11 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2281,8 +1995,11 @@
       <c r="J19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -2310,8 +2027,11 @@
       <c r="J20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2339,8 +2059,11 @@
       <c r="J21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2368,8 +2091,11 @@
       <c r="J22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2397,8 +2123,11 @@
       <c r="J23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2426,8 +2155,11 @@
       <c r="J24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2455,8 +2187,11 @@
       <c r="J25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2484,8 +2219,11 @@
       <c r="J26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2513,8 +2251,11 @@
       <c r="J27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2542,8 +2283,11 @@
       <c r="J28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2571,8 +2315,11 @@
       <c r="J29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2600,8 +2347,11 @@
       <c r="J30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -2629,8 +2379,11 @@
       <c r="J31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2658,8 +2411,11 @@
       <c r="J32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -2687,8 +2443,11 @@
       <c r="J33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2716,8 +2475,11 @@
       <c r="J34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2745,8 +2507,11 @@
       <c r="J35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2774,8 +2539,11 @@
       <c r="J36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -2803,8 +2571,11 @@
       <c r="J37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2832,8 +2603,11 @@
       <c r="J38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2861,8 +2635,11 @@
       <c r="J39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2890,8 +2667,11 @@
       <c r="J40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2919,8 +2699,11 @@
       <c r="J41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -2948,8 +2731,11 @@
       <c r="J42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -2977,8 +2763,11 @@
       <c r="J43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -3006,8 +2795,11 @@
       <c r="J44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -3035,8 +2827,11 @@
       <c r="J45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -3064,8 +2859,11 @@
       <c r="J46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -3093,8 +2891,11 @@
       <c r="J47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -3122,8 +2923,11 @@
       <c r="J48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -3151,8 +2955,11 @@
       <c r="J49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -3180,8 +2987,11 @@
       <c r="J50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -3209,8 +3019,11 @@
       <c r="J51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -3238,8 +3051,11 @@
       <c r="J52" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -3267,8 +3083,11 @@
       <c r="J53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -3296,8 +3115,11 @@
       <c r="J54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -3322,8 +3144,11 @@
       <c r="J55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -3348,8 +3173,11 @@
       <c r="J56" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -3374,8 +3202,11 @@
       <c r="J57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -3400,8 +3231,11 @@
       <c r="J58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -3426,8 +3260,11 @@
       <c r="J59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -3452,8 +3289,11 @@
       <c r="J60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -3478,8 +3318,11 @@
       <c r="J61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -3504,8 +3347,11 @@
       <c r="J62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -3530,8 +3376,11 @@
       <c r="J63" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>174</v>
       </c>
@@ -3556,8 +3405,11 @@
       <c r="J64" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -3582,8 +3434,11 @@
       <c r="J65" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -3608,8 +3463,11 @@
       <c r="J66" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -3634,8 +3492,11 @@
       <c r="J67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -3660,8 +3521,11 @@
       <c r="J68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>184</v>
       </c>
@@ -3686,8 +3550,11 @@
       <c r="J69" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -3712,8 +3579,11 @@
       <c r="J70" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -3738,8 +3608,11 @@
       <c r="J71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -3764,8 +3637,11 @@
       <c r="J72" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>192</v>
       </c>
@@ -3790,8 +3666,11 @@
       <c r="J73" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -3816,8 +3695,11 @@
       <c r="J74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -3842,8 +3724,11 @@
       <c r="J75" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -3868,8 +3753,11 @@
       <c r="J76" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -3894,8 +3782,11 @@
       <c r="J77" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -3920,8 +3811,11 @@
       <c r="J78" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -3946,10 +3840,14 @@
       <c r="J79" t="s">
         <v>14</v>
       </c>
+      <c r="K79" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -692,11 +692,11 @@
   </si>
   <si>
     <t>ShowName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShowName_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ShowName_2</t>
@@ -928,18 +928,106 @@
   </si>
   <si>
     <t>ShowName_78</t>
+  </si>
+  <si>
+    <t>EquipIDRef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipIDRef_1</t>
+  </si>
+  <si>
+    <t>EquipIDRef_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EquipIDRef_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EquipIDRef_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EquipIDRef_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -950,6 +1038,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -981,7 +1076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -992,6 +1087,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1368,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,10 +1483,10 @@
     <col min="7" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1422,8 +1520,11 @@
       <c r="K1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1454,8 +1555,11 @@
       <c r="K2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1486,8 +1590,11 @@
       <c r="K3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1518,8 +1625,11 @@
       <c r="K4" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1550,8 +1660,11 @@
       <c r="K5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1582,8 +1695,11 @@
       <c r="K6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1614,8 +1730,11 @@
       <c r="K7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1646,8 +1765,11 @@
       <c r="K8" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1678,8 +1800,11 @@
       <c r="K9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1710,8 +1835,11 @@
       <c r="K10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -1742,8 +1870,11 @@
       <c r="K11" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L11" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1774,8 +1905,11 @@
       <c r="K12" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1806,8 +1940,11 @@
       <c r="K13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L13" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -1838,8 +1975,11 @@
       <c r="K14" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1870,8 +2010,11 @@
       <c r="K15" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L15" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1902,8 +2045,11 @@
       <c r="K16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1934,8 +2080,11 @@
       <c r="K17" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L17" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -1966,8 +2115,11 @@
       <c r="K18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1998,8 +2150,11 @@
       <c r="K19" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L19" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -2030,8 +2185,11 @@
       <c r="K20" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -2062,8 +2220,11 @@
       <c r="K21" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L21" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2094,8 +2255,11 @@
       <c r="K22" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2126,8 +2290,11 @@
       <c r="K23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L23" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2158,8 +2325,11 @@
       <c r="K24" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2190,8 +2360,11 @@
       <c r="K25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L25" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -2222,8 +2395,11 @@
       <c r="K26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -2254,8 +2430,11 @@
       <c r="K27" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L27" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -2286,8 +2465,11 @@
       <c r="K28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -2318,8 +2500,11 @@
       <c r="K29" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>82</v>
       </c>
@@ -2350,8 +2535,11 @@
       <c r="K30" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -2382,8 +2570,11 @@
       <c r="K31" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L31" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -2414,8 +2605,11 @@
       <c r="K32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -2446,8 +2640,11 @@
       <c r="K33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L33" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2478,8 +2675,11 @@
       <c r="K34" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -2510,8 +2710,11 @@
       <c r="K35" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L35" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -2542,8 +2745,11 @@
       <c r="K36" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -2574,8 +2780,11 @@
       <c r="K37" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L37" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2606,8 +2815,11 @@
       <c r="K38" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2638,8 +2850,11 @@
       <c r="K39" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L39" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2670,8 +2885,11 @@
       <c r="K40" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2702,8 +2920,11 @@
       <c r="K41" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -2734,8 +2955,11 @@
       <c r="K42" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>121</v>
       </c>
@@ -2766,8 +2990,11 @@
       <c r="K43" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L43" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -2798,8 +3025,11 @@
       <c r="K44" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -2830,8 +3060,11 @@
       <c r="K45" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L45" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -2862,8 +3095,11 @@
       <c r="K46" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>133</v>
       </c>
@@ -2894,8 +3130,11 @@
       <c r="K47" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L47" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -2926,8 +3165,11 @@
       <c r="K48" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2958,8 +3200,11 @@
       <c r="K49" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L49" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -2990,8 +3235,11 @@
       <c r="K50" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -3022,8 +3270,11 @@
       <c r="K51" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L51" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -3054,8 +3305,11 @@
       <c r="K52" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>151</v>
       </c>
@@ -3086,8 +3340,11 @@
       <c r="K53" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L53" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -3118,8 +3375,11 @@
       <c r="K54" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -3147,8 +3407,11 @@
       <c r="K55" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L55" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>158</v>
       </c>
@@ -3176,8 +3439,11 @@
       <c r="K56" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -3205,8 +3471,11 @@
       <c r="K57" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L57" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -3234,8 +3503,11 @@
       <c r="K58" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>164</v>
       </c>
@@ -3263,8 +3535,11 @@
       <c r="K59" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L59" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -3292,8 +3567,11 @@
       <c r="K60" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -3321,8 +3599,11 @@
       <c r="K61" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>170</v>
       </c>
@@ -3350,8 +3631,11 @@
       <c r="K62" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -3379,8 +3663,11 @@
       <c r="K63" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L63" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>174</v>
       </c>
@@ -3408,8 +3695,11 @@
       <c r="K64" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>176</v>
       </c>
@@ -3437,8 +3727,11 @@
       <c r="K65" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L65" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>178</v>
       </c>
@@ -3466,8 +3759,11 @@
       <c r="K66" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -3495,8 +3791,11 @@
       <c r="K67" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L67" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>182</v>
       </c>
@@ -3524,8 +3823,11 @@
       <c r="K68" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>184</v>
       </c>
@@ -3553,8 +3855,11 @@
       <c r="K69" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L69" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -3582,8 +3887,11 @@
       <c r="K70" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>188</v>
       </c>
@@ -3611,8 +3919,11 @@
       <c r="K71" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L71" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -3640,8 +3951,11 @@
       <c r="K72" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L72" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>192</v>
       </c>
@@ -3669,8 +3983,11 @@
       <c r="K73" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L73" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -3698,8 +4015,11 @@
       <c r="K74" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -3727,8 +4047,11 @@
       <c r="K75" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L75" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -3756,8 +4079,11 @@
       <c r="K76" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>200</v>
       </c>
@@ -3785,8 +4111,11 @@
       <c r="K77" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L77" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -3814,8 +4143,11 @@
       <c r="K78" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -3843,9 +4175,12 @@
       <c r="K79" t="s">
         <v>284</v>
       </c>
+      <c r="L79" s="4" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="8985"/>
+    <workbookView windowWidth="19455" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <author>杨鹏博</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,14 +42,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207">
   <si>
     <t>ID</t>
   </si>
@@ -166,6 +161,9 @@
     <t>Player_1_0</t>
   </si>
   <si>
+    <t>Prefabs/Object/Dwarf_Warrior_RIG</t>
+  </si>
+  <si>
     <t>PlayerAtt7</t>
   </si>
   <si>
@@ -689,332 +687,19 @@
   </si>
   <si>
     <t>Prefabs/Object/NPC/skeleton_warrior_yellow</t>
-  </si>
-  <si>
-    <t>ShowName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowName_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowName_2</t>
-  </si>
-  <si>
-    <t>ShowName_3</t>
-  </si>
-  <si>
-    <t>ShowName_4</t>
-  </si>
-  <si>
-    <t>ShowName_5</t>
-  </si>
-  <si>
-    <t>ShowName_6</t>
-  </si>
-  <si>
-    <t>ShowName_7</t>
-  </si>
-  <si>
-    <t>ShowName_8</t>
-  </si>
-  <si>
-    <t>ShowName_9</t>
-  </si>
-  <si>
-    <t>ShowName_10</t>
-  </si>
-  <si>
-    <t>ShowName_11</t>
-  </si>
-  <si>
-    <t>ShowName_12</t>
-  </si>
-  <si>
-    <t>ShowName_13</t>
-  </si>
-  <si>
-    <t>ShowName_14</t>
-  </si>
-  <si>
-    <t>ShowName_15</t>
-  </si>
-  <si>
-    <t>ShowName_16</t>
-  </si>
-  <si>
-    <t>ShowName_17</t>
-  </si>
-  <si>
-    <t>ShowName_18</t>
-  </si>
-  <si>
-    <t>ShowName_19</t>
-  </si>
-  <si>
-    <t>ShowName_20</t>
-  </si>
-  <si>
-    <t>ShowName_21</t>
-  </si>
-  <si>
-    <t>ShowName_22</t>
-  </si>
-  <si>
-    <t>ShowName_23</t>
-  </si>
-  <si>
-    <t>ShowName_24</t>
-  </si>
-  <si>
-    <t>ShowName_25</t>
-  </si>
-  <si>
-    <t>ShowName_26</t>
-  </si>
-  <si>
-    <t>ShowName_27</t>
-  </si>
-  <si>
-    <t>ShowName_28</t>
-  </si>
-  <si>
-    <t>ShowName_29</t>
-  </si>
-  <si>
-    <t>ShowName_30</t>
-  </si>
-  <si>
-    <t>ShowName_31</t>
-  </si>
-  <si>
-    <t>ShowName_32</t>
-  </si>
-  <si>
-    <t>ShowName_33</t>
-  </si>
-  <si>
-    <t>ShowName_34</t>
-  </si>
-  <si>
-    <t>ShowName_35</t>
-  </si>
-  <si>
-    <t>ShowName_36</t>
-  </si>
-  <si>
-    <t>ShowName_37</t>
-  </si>
-  <si>
-    <t>ShowName_38</t>
-  </si>
-  <si>
-    <t>ShowName_39</t>
-  </si>
-  <si>
-    <t>ShowName_40</t>
-  </si>
-  <si>
-    <t>ShowName_41</t>
-  </si>
-  <si>
-    <t>ShowName_42</t>
-  </si>
-  <si>
-    <t>ShowName_43</t>
-  </si>
-  <si>
-    <t>ShowName_44</t>
-  </si>
-  <si>
-    <t>ShowName_45</t>
-  </si>
-  <si>
-    <t>ShowName_46</t>
-  </si>
-  <si>
-    <t>ShowName_47</t>
-  </si>
-  <si>
-    <t>ShowName_48</t>
-  </si>
-  <si>
-    <t>ShowName_49</t>
-  </si>
-  <si>
-    <t>ShowName_50</t>
-  </si>
-  <si>
-    <t>ShowName_51</t>
-  </si>
-  <si>
-    <t>ShowName_52</t>
-  </si>
-  <si>
-    <t>ShowName_53</t>
-  </si>
-  <si>
-    <t>ShowName_54</t>
-  </si>
-  <si>
-    <t>ShowName_55</t>
-  </si>
-  <si>
-    <t>ShowName_56</t>
-  </si>
-  <si>
-    <t>ShowName_57</t>
-  </si>
-  <si>
-    <t>ShowName_58</t>
-  </si>
-  <si>
-    <t>ShowName_59</t>
-  </si>
-  <si>
-    <t>ShowName_60</t>
-  </si>
-  <si>
-    <t>ShowName_61</t>
-  </si>
-  <si>
-    <t>ShowName_62</t>
-  </si>
-  <si>
-    <t>ShowName_63</t>
-  </si>
-  <si>
-    <t>ShowName_64</t>
-  </si>
-  <si>
-    <t>ShowName_65</t>
-  </si>
-  <si>
-    <t>ShowName_66</t>
-  </si>
-  <si>
-    <t>ShowName_67</t>
-  </si>
-  <si>
-    <t>ShowName_68</t>
-  </si>
-  <si>
-    <t>ShowName_69</t>
-  </si>
-  <si>
-    <t>ShowName_70</t>
-  </si>
-  <si>
-    <t>ShowName_71</t>
-  </si>
-  <si>
-    <t>ShowName_72</t>
-  </si>
-  <si>
-    <t>ShowName_73</t>
-  </si>
-  <si>
-    <t>ShowName_74</t>
-  </si>
-  <si>
-    <t>ShowName_75</t>
-  </si>
-  <si>
-    <t>ShowName_76</t>
-  </si>
-  <si>
-    <t>ShowName_77</t>
-  </si>
-  <si>
-    <t>ShowName_78</t>
-  </si>
-  <si>
-    <t>EquipIDRef</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EquipIDRef_1</t>
-  </si>
-  <si>
-    <t>EquipIDRef_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>EquipIDRef_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>EquipIDRef_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>EquipIDRef_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1023,32 +708,157 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,8 +871,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1070,13 +1066,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,51 +1327,58 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1465,14 +1710,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="41.25" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -1483,10 +1729,9 @@
     <col min="7" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="12" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1517,14 +1762,8 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1552,14 +1791,8 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1587,14 +1820,8 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1622,14 +1849,8 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1657,14 +1878,8 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1692,14 +1907,8 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>211</v>
-      </c>
-      <c r="L6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1727,14 +1936,8 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1742,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1757,21 +1960,15 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1792,21 +1989,15 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
-        <v>214</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1827,21 +2018,15 @@
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1862,21 +2047,15 @@
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="K11" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1897,21 +2076,15 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" t="s">
-        <v>217</v>
-      </c>
-      <c r="L12" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1932,21 +2105,15 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
       </c>
-      <c r="K13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1967,21 +2134,15 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
       </c>
-      <c r="K14" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2002,21 +2163,15 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
-      <c r="K15" t="s">
-        <v>220</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2037,21 +2192,15 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
-      <c r="K16" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2072,21 +2221,15 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
       </c>
-      <c r="K17" t="s">
-        <v>222</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2107,21 +2250,15 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
-      <c r="K18" t="s">
-        <v>223</v>
-      </c>
-      <c r="L18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2142,21 +2279,15 @@
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
       </c>
-      <c r="K19" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2177,21 +2308,15 @@
         <v>2</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
       </c>
-      <c r="K20" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2212,27 +2337,21 @@
         <v>2</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
       </c>
-      <c r="K21" t="s">
-        <v>226</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2247,27 +2366,21 @@
         <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
       </c>
-      <c r="K22" t="s">
-        <v>227</v>
-      </c>
-      <c r="L22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2282,27 +2395,21 @@
         <v>2</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
       </c>
-      <c r="K23" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2317,27 +2424,21 @@
         <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
       </c>
-      <c r="K24" t="s">
-        <v>229</v>
-      </c>
-      <c r="L24" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2352,27 +2453,21 @@
         <v>2</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
       </c>
-      <c r="K25" t="s">
-        <v>230</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2387,27 +2482,21 @@
         <v>2</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
       </c>
-      <c r="K26" t="s">
-        <v>231</v>
-      </c>
-      <c r="L26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2422,27 +2511,21 @@
         <v>2</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
       </c>
-      <c r="K27" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2457,27 +2540,21 @@
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
       </c>
-      <c r="K28" t="s">
-        <v>233</v>
-      </c>
-      <c r="L28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2492,27 +2569,21 @@
         <v>2</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
       </c>
-      <c r="K29" t="s">
-        <v>234</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2527,27 +2598,21 @@
         <v>2</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
       </c>
-      <c r="K30" t="s">
-        <v>235</v>
-      </c>
-      <c r="L30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2562,27 +2627,21 @@
         <v>2</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
       </c>
-      <c r="K31" t="s">
-        <v>236</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2597,27 +2656,21 @@
         <v>2</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
       </c>
-      <c r="K32" t="s">
-        <v>237</v>
-      </c>
-      <c r="L32" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2632,27 +2685,21 @@
         <v>2</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
       </c>
-      <c r="K33" t="s">
-        <v>238</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2667,27 +2714,21 @@
         <v>2</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
       </c>
-      <c r="K34" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2702,27 +2743,21 @@
         <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
       </c>
-      <c r="K35" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2737,27 +2772,21 @@
         <v>2</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
       </c>
-      <c r="K36" t="s">
-        <v>241</v>
-      </c>
-      <c r="L36" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2772,27 +2801,21 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
       </c>
-      <c r="K37" t="s">
-        <v>242</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2807,27 +2830,21 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
       </c>
-      <c r="K38" t="s">
-        <v>243</v>
-      </c>
-      <c r="L38" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2842,27 +2859,21 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
       </c>
-      <c r="K39" t="s">
-        <v>244</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2877,27 +2888,21 @@
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
       </c>
-      <c r="K40" t="s">
-        <v>245</v>
-      </c>
-      <c r="L40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2912,27 +2917,21 @@
         <v>2</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
       </c>
-      <c r="K41" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2947,27 +2946,21 @@
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
       </c>
-      <c r="K42" t="s">
-        <v>247</v>
-      </c>
-      <c r="L42" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2982,27 +2975,21 @@
         <v>2</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
       </c>
-      <c r="K43" t="s">
-        <v>248</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3017,27 +3004,21 @@
         <v>2</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J44" t="s">
         <v>14</v>
       </c>
-      <c r="K44" t="s">
-        <v>249</v>
-      </c>
-      <c r="L44" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3052,27 +3033,21 @@
         <v>2</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
       </c>
-      <c r="K45" t="s">
-        <v>250</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3087,27 +3062,21 @@
         <v>2</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J46" t="s">
         <v>14</v>
       </c>
-      <c r="K46" t="s">
-        <v>251</v>
-      </c>
-      <c r="L46" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3122,27 +3091,21 @@
         <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
       </c>
-      <c r="K47" t="s">
-        <v>252</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3157,27 +3120,21 @@
         <v>2</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
       </c>
-      <c r="K48" t="s">
-        <v>253</v>
-      </c>
-      <c r="L48" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3192,27 +3149,21 @@
         <v>2</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
       </c>
-      <c r="K49" t="s">
-        <v>254</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3227,27 +3178,21 @@
         <v>2</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
       </c>
-      <c r="K50" t="s">
-        <v>255</v>
-      </c>
-      <c r="L50" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3262,27 +3207,21 @@
         <v>2</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
       </c>
-      <c r="K51" t="s">
-        <v>256</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3297,27 +3236,21 @@
         <v>2</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
       </c>
-      <c r="K52" t="s">
-        <v>257</v>
-      </c>
-      <c r="L52" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3332,27 +3265,21 @@
         <v>2</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
       </c>
-      <c r="K53" t="s">
-        <v>258</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54">
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3367,24 +3294,18 @@
         <v>2</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
       </c>
-      <c r="K54" t="s">
-        <v>259</v>
-      </c>
-      <c r="L54" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3399,24 +3320,18 @@
         <v>2</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
       </c>
-      <c r="K55" t="s">
-        <v>260</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3431,24 +3346,18 @@
         <v>2</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
       </c>
-      <c r="K56" t="s">
-        <v>261</v>
-      </c>
-      <c r="L56" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3463,24 +3372,18 @@
         <v>2</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
       </c>
-      <c r="K57" t="s">
-        <v>262</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3495,24 +3398,18 @@
         <v>2</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
       </c>
-      <c r="K58" t="s">
-        <v>263</v>
-      </c>
-      <c r="L58" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3527,24 +3424,18 @@
         <v>2</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
       </c>
-      <c r="K59" t="s">
-        <v>264</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3559,24 +3450,18 @@
         <v>2</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
       </c>
-      <c r="K60" t="s">
-        <v>265</v>
-      </c>
-      <c r="L60" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3591,24 +3476,18 @@
         <v>2</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
-      <c r="K61" t="s">
-        <v>266</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3623,24 +3502,18 @@
         <v>2</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
       </c>
-      <c r="K62" t="s">
-        <v>267</v>
-      </c>
-      <c r="L62" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3655,24 +3528,18 @@
         <v>2</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
       </c>
-      <c r="K63" t="s">
-        <v>268</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3687,24 +3554,18 @@
         <v>2</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J64" t="s">
         <v>14</v>
       </c>
-      <c r="K64" t="s">
-        <v>269</v>
-      </c>
-      <c r="L64" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3719,24 +3580,18 @@
         <v>2</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
       </c>
-      <c r="K65" t="s">
-        <v>270</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3751,24 +3606,18 @@
         <v>2</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
       </c>
-      <c r="K66" t="s">
-        <v>271</v>
-      </c>
-      <c r="L66" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3783,24 +3632,18 @@
         <v>2</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
       </c>
-      <c r="K67" t="s">
-        <v>272</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3815,24 +3658,18 @@
         <v>2</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
       </c>
-      <c r="K68" t="s">
-        <v>273</v>
-      </c>
-      <c r="L68" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3847,24 +3684,18 @@
         <v>2</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
       </c>
-      <c r="K69" t="s">
-        <v>274</v>
-      </c>
-      <c r="L69" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3879,24 +3710,18 @@
         <v>2</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
       </c>
-      <c r="K70" t="s">
-        <v>275</v>
-      </c>
-      <c r="L70" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3911,24 +3736,18 @@
         <v>2</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
       </c>
-      <c r="K71" t="s">
-        <v>276</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3943,24 +3762,18 @@
         <v>2</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
       </c>
-      <c r="K72" t="s">
-        <v>277</v>
-      </c>
-      <c r="L72" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3975,24 +3788,18 @@
         <v>2</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J73" t="s">
         <v>14</v>
       </c>
-      <c r="K73" t="s">
-        <v>278</v>
-      </c>
-      <c r="L73" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4007,24 +3814,18 @@
         <v>2</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J74" t="s">
         <v>14</v>
       </c>
-      <c r="K74" t="s">
-        <v>279</v>
-      </c>
-      <c r="L74" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4039,24 +3840,18 @@
         <v>2</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J75" t="s">
         <v>14</v>
       </c>
-      <c r="K75" t="s">
-        <v>280</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4071,24 +3866,18 @@
         <v>2</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J76" t="s">
         <v>14</v>
       </c>
-      <c r="K76" t="s">
-        <v>281</v>
-      </c>
-      <c r="L76" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4103,24 +3892,18 @@
         <v>2</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
       </c>
-      <c r="K77" t="s">
-        <v>282</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4135,24 +3918,18 @@
         <v>2</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J78" t="s">
         <v>14</v>
       </c>
-      <c r="K78" t="s">
-        <v>283</v>
-      </c>
-      <c r="L78" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4167,22 +3944,15 @@
         <v>2</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
       </c>
-      <c r="K79" t="s">
-        <v>284</v>
-      </c>
-      <c r="L79" s="4" t="s">
-        <v>289</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>Id</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -1231,10 +1234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1251,16 +1254,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1269,7 +1280,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,29 +1293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,17 +1308,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1340,40 +1344,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1388,17 +1360,48 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1423,13 +1426,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1504,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,25 +1558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,97 +1588,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1591,24 +1606,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1644,6 +1647,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1701,82 +1717,21 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1800,7 +1755,81 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1809,152 +1838,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1964,25 +1993,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2046,7 +2072,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2055,7 +2081,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -2400,10 +2425,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE85"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2424,97 +2449,97 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:31">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2522,94 +2547,94 @@
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2993,306 +3018,312 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="41.25" spans="1:31">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:31">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="41.25" spans="1:31">
+      <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="O8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="P8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="R8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="S8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="T8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="U8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="V8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="W8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="X8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Y8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="Z8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AA8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AB8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AC8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AD8" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="10" t="s">
+      <c r="AE8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>68</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V8" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
       <c r="P9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9">
         <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T9">
         <v>2</v>
       </c>
-      <c r="U9" s="10" t="s">
+      <c r="U9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>77</v>
-      </c>
-      <c r="V9" t="s">
-        <v>70</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>80</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3301,87 +3332,87 @@
         <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T10">
         <v>2</v>
       </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>81</v>
-      </c>
-      <c r="V10" t="s">
-        <v>70</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>84</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3390,87 +3421,87 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
-      <c r="U11" s="10" t="s">
+      <c r="U11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>85</v>
-      </c>
-      <c r="V11" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>88</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3479,87 +3510,87 @@
         <v>20</v>
       </c>
       <c r="R12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V12" t="s">
+        <v>71</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>89</v>
-      </c>
-      <c r="V12" t="s">
-        <v>70</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>92</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3568,87 +3599,87 @@
         <v>20</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="U13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>93</v>
-      </c>
-      <c r="V13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA13" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>96</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3657,87 +3688,87 @@
         <v>20</v>
       </c>
       <c r="R14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="U14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="V14" t="s">
+        <v>71</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>97</v>
-      </c>
-      <c r="V14" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3746,49 +3777,49 @@
         <v>20</v>
       </c>
       <c r="R15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="U15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="V15" t="s">
+        <v>71</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="V15" t="s">
-        <v>70</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA15" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -3826,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3835,49 +3866,49 @@
         <v>20</v>
       </c>
       <c r="R16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="V16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="V16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA16" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -3915,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3924,49 +3955,49 @@
         <v>20</v>
       </c>
       <c r="R17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
-      <c r="U17" s="10" t="s">
+      <c r="U17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" t="s">
+        <v>71</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V17" t="s">
-        <v>70</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="10" t="s">
-        <v>108</v>
-      </c>
       <c r="C18">
         <v>0</v>
       </c>
@@ -4004,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -4013,49 +4044,49 @@
         <v>20</v>
       </c>
       <c r="R18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
-      <c r="U18" s="10" t="s">
+      <c r="U18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V18" t="s">
+        <v>71</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V18" t="s">
-        <v>70</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="C19">
         <v>0</v>
       </c>
@@ -4093,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -4102,49 +4133,49 @@
         <v>20</v>
       </c>
       <c r="R19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V19" t="s">
+        <v>71</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="V19" t="s">
-        <v>70</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA19" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="C20">
         <v>0</v>
       </c>
@@ -4182,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -4191,49 +4222,49 @@
         <v>20</v>
       </c>
       <c r="R20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
-      <c r="U20" s="10" t="s">
+      <c r="U20" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V20" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="V20" t="s">
-        <v>70</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="10" t="s">
-        <v>117</v>
-      </c>
       <c r="C21">
         <v>0</v>
       </c>
@@ -4271,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4280,49 +4311,49 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
-      <c r="U21" s="10" t="s">
+      <c r="U21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V21" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V21" t="s">
-        <v>70</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA21" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="C22">
         <v>0</v>
       </c>
@@ -4360,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4369,49 +4400,49 @@
         <v>20</v>
       </c>
       <c r="R22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
-      <c r="U22" s="10" t="s">
+      <c r="U22" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="V22" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V22" t="s">
-        <v>70</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="10" t="s">
-        <v>123</v>
-      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -4449,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4458,49 +4489,49 @@
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
-      <c r="U23" s="10" t="s">
+      <c r="U23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="V23" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="V23" t="s">
-        <v>70</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="C24">
         <v>0</v>
       </c>
@@ -4538,96 +4569,96 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>20</v>
       </c>
       <c r="R24" t="s">
+        <v>69</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="V24" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>68</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="V24" t="s">
-        <v>70</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>67</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -4636,87 +4667,87 @@
         <v>20</v>
       </c>
       <c r="R25" t="s">
+        <v>69</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V25" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>68</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="V25" t="s">
-        <v>70</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA25" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="A26" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>67</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -4725,87 +4756,87 @@
         <v>20</v>
       </c>
       <c r="R26" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="V26" t="s">
+        <v>71</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>68</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="V26" t="s">
-        <v>70</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31">
-      <c r="A27" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>67</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -4814,87 +4845,87 @@
         <v>20</v>
       </c>
       <c r="R27" t="s">
+        <v>69</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="V27" t="s">
+        <v>71</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
         <v>68</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="V27" t="s">
-        <v>70</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>139</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -4903,31 +4934,31 @@
         <v>20</v>
       </c>
       <c r="R28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T28">
         <v>2</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>140</v>
+      <c r="U28" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="V28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>72</v>
+        <v>138</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA28" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -4944,7 +4975,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4983,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -4992,31 +5023,31 @@
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
-      <c r="U29" s="10" t="s">
-        <v>144</v>
+      <c r="U29" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="V29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>72</v>
+        <v>142</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z29" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA29" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -5033,7 +5064,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5072,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -5081,31 +5112,31 @@
         <v>20</v>
       </c>
       <c r="R30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
-      <c r="U30" s="10" t="s">
-        <v>148</v>
+      <c r="U30" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="V30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y30" s="10" t="s">
-        <v>72</v>
+        <v>146</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z30" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA30" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -5122,7 +5153,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5161,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -5170,31 +5201,31 @@
         <v>20</v>
       </c>
       <c r="R31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T31">
         <v>2</v>
       </c>
-      <c r="U31" s="10" t="s">
-        <v>152</v>
+      <c r="U31" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="V31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>72</v>
+        <v>150</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA31" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -5211,7 +5242,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5250,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -5259,31 +5290,31 @@
         <v>20</v>
       </c>
       <c r="R32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
-      <c r="U32" s="10" t="s">
-        <v>156</v>
+      <c r="U32" s="9" t="s">
+        <v>153</v>
       </c>
       <c r="V32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y32" s="10" t="s">
-        <v>72</v>
+        <v>154</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z32" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA32" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA32" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -5300,7 +5331,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5339,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -5348,31 +5379,31 @@
         <v>20</v>
       </c>
       <c r="R33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>160</v>
+      <c r="U33" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="V33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y33" s="10" t="s">
-        <v>72</v>
+        <v>158</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA33" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA33" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -5389,7 +5420,7 @@
     </row>
     <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -5428,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -5437,31 +5468,31 @@
         <v>20</v>
       </c>
       <c r="R34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
-      <c r="U34" s="10" t="s">
-        <v>164</v>
+      <c r="U34" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="V34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y34" s="10" t="s">
-        <v>72</v>
+        <v>162</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z34" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA34" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA34" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -5478,7 +5509,7 @@
     </row>
     <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -5517,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -5526,31 +5557,31 @@
         <v>20</v>
       </c>
       <c r="R35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
-      <c r="U35" s="10" t="s">
-        <v>168</v>
+      <c r="U35" s="9" t="s">
+        <v>165</v>
       </c>
       <c r="V35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>72</v>
+        <v>166</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z35" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA35" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA35" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -5567,7 +5598,7 @@
     </row>
     <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5606,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -5615,31 +5646,31 @@
         <v>20</v>
       </c>
       <c r="R36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
-      <c r="U36" s="10" t="s">
-        <v>172</v>
+      <c r="U36" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="V36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y36" s="10" t="s">
-        <v>72</v>
+        <v>170</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z36" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA36" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -5656,7 +5687,7 @@
     </row>
     <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5695,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -5704,31 +5735,31 @@
         <v>20</v>
       </c>
       <c r="R37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
-      <c r="U37" s="10" t="s">
-        <v>176</v>
+      <c r="U37" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="V37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y37" s="10" t="s">
-        <v>72</v>
+        <v>174</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA37" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA37" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -5745,7 +5776,7 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5784,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -5793,31 +5824,31 @@
         <v>20</v>
       </c>
       <c r="R38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T38">
         <v>2</v>
       </c>
-      <c r="U38" s="10" t="s">
-        <v>180</v>
+      <c r="U38" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="V38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y38" s="10" t="s">
-        <v>72</v>
+        <v>178</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z38" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA38" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA38" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5834,7 +5865,7 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5873,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -5882,31 +5913,31 @@
         <v>20</v>
       </c>
       <c r="R39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
-      <c r="U39" s="10" t="s">
-        <v>184</v>
+      <c r="U39" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="V39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y39" s="10" t="s">
-        <v>72</v>
+        <v>182</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z39" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA39" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA39" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5923,7 +5954,7 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5962,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -5971,31 +6002,31 @@
         <v>20</v>
       </c>
       <c r="R40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
-      <c r="U40" s="10" t="s">
-        <v>188</v>
+      <c r="U40" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="V40" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y40" s="10" t="s">
-        <v>72</v>
+        <v>186</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z40" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA40" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA40" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -6012,7 +6043,7 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -6051,7 +6082,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -6060,31 +6091,31 @@
         <v>20</v>
       </c>
       <c r="R41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
-      <c r="U41" s="10" t="s">
-        <v>192</v>
+      <c r="U41" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="V41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y41" s="10" t="s">
-        <v>72</v>
+        <v>190</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA41" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA41" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -6101,7 +6132,7 @@
     </row>
     <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -6140,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -6149,31 +6180,31 @@
         <v>20</v>
       </c>
       <c r="R42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T42">
         <v>2</v>
       </c>
-      <c r="U42" s="10" t="s">
-        <v>196</v>
+      <c r="U42" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="V42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y42" s="10" t="s">
-        <v>72</v>
+        <v>194</v>
+      </c>
+      <c r="Y42" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA42" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA42" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -6190,7 +6221,7 @@
     </row>
     <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -6229,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -6238,31 +6269,31 @@
         <v>20</v>
       </c>
       <c r="R43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T43">
         <v>2</v>
       </c>
-      <c r="U43" s="10" t="s">
-        <v>200</v>
+      <c r="U43" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="V43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y43" s="10" t="s">
-        <v>72</v>
+        <v>198</v>
+      </c>
+      <c r="Y43" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA43" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA43" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -6279,7 +6310,7 @@
     </row>
     <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -6318,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -6327,31 +6358,31 @@
         <v>20</v>
       </c>
       <c r="R44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
-      <c r="U44" s="10" t="s">
-        <v>204</v>
+      <c r="U44" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="V44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y44" s="10" t="s">
-        <v>72</v>
+        <v>202</v>
+      </c>
+      <c r="Y44" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA44" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA44" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -6368,7 +6399,7 @@
     </row>
     <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6407,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -6416,31 +6447,31 @@
         <v>20</v>
       </c>
       <c r="R45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
-      <c r="U45" s="10" t="s">
-        <v>208</v>
+      <c r="U45" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="V45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y45" s="10" t="s">
-        <v>72</v>
+        <v>206</v>
+      </c>
+      <c r="Y45" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z45" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA45" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA45" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -6457,7 +6488,7 @@
     </row>
     <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6496,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -6505,31 +6536,31 @@
         <v>20</v>
       </c>
       <c r="R46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
-      <c r="U46" s="10" t="s">
-        <v>212</v>
+      <c r="U46" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="V46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y46" s="10" t="s">
-        <v>72</v>
+        <v>210</v>
+      </c>
+      <c r="Y46" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA46" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA46" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -6546,7 +6577,7 @@
     </row>
     <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6585,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -6594,31 +6625,31 @@
         <v>20</v>
       </c>
       <c r="R47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T47">
         <v>2</v>
       </c>
-      <c r="U47" s="10" t="s">
-        <v>216</v>
+      <c r="U47" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="V47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y47" s="10" t="s">
-        <v>72</v>
+        <v>214</v>
+      </c>
+      <c r="Y47" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA47" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA47" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6635,7 +6666,7 @@
     </row>
     <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6674,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -6683,31 +6714,31 @@
         <v>20</v>
       </c>
       <c r="R48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T48">
         <v>2</v>
       </c>
-      <c r="U48" s="10" t="s">
-        <v>220</v>
+      <c r="U48" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="V48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y48" s="10" t="s">
-        <v>72</v>
+        <v>218</v>
+      </c>
+      <c r="Y48" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z48" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA48" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA48" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -6724,7 +6755,7 @@
     </row>
     <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6763,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -6772,31 +6803,31 @@
         <v>20</v>
       </c>
       <c r="R49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T49">
         <v>2</v>
       </c>
-      <c r="U49" s="10" t="s">
-        <v>224</v>
+      <c r="U49" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="V49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y49" s="10" t="s">
-        <v>72</v>
+        <v>222</v>
+      </c>
+      <c r="Y49" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z49" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA49" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA49" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6813,7 +6844,7 @@
     </row>
     <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6852,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -6861,31 +6892,31 @@
         <v>20</v>
       </c>
       <c r="R50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
-      <c r="U50" s="10" t="s">
-        <v>228</v>
+      <c r="U50" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="V50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y50" s="10" t="s">
-        <v>72</v>
+        <v>226</v>
+      </c>
+      <c r="Y50" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z50" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA50" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA50" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6902,7 +6933,7 @@
     </row>
     <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6941,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -6950,31 +6981,31 @@
         <v>20</v>
       </c>
       <c r="R51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
-      <c r="U51" s="10" t="s">
-        <v>232</v>
+      <c r="U51" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="V51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>72</v>
+        <v>230</v>
+      </c>
+      <c r="Y51" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z51" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA51" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA51" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6991,7 +7022,7 @@
     </row>
     <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -7030,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -7039,31 +7070,31 @@
         <v>20</v>
       </c>
       <c r="R52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T52">
         <v>2</v>
       </c>
-      <c r="U52" s="10" t="s">
-        <v>236</v>
+      <c r="U52" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="V52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y52" s="10" t="s">
-        <v>72</v>
+        <v>234</v>
+      </c>
+      <c r="Y52" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z52" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA52" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA52" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -7080,7 +7111,7 @@
     </row>
     <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -7119,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -7128,31 +7159,31 @@
         <v>20</v>
       </c>
       <c r="R53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T53">
         <v>2</v>
       </c>
-      <c r="U53" s="10" t="s">
-        <v>240</v>
+      <c r="U53" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="V53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y53" s="10" t="s">
-        <v>72</v>
+        <v>238</v>
+      </c>
+      <c r="Y53" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z53" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA53" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA53" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -7169,7 +7200,7 @@
     </row>
     <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -7208,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P54">
         <v>2</v>
@@ -7217,31 +7248,31 @@
         <v>20</v>
       </c>
       <c r="R54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
-      <c r="U54" s="10" t="s">
-        <v>244</v>
+      <c r="U54" s="9" t="s">
+        <v>241</v>
       </c>
       <c r="V54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y54" s="10" t="s">
-        <v>72</v>
+        <v>242</v>
+      </c>
+      <c r="Y54" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z54" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA54" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA54" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -7258,7 +7289,7 @@
     </row>
     <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -7297,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -7306,31 +7337,31 @@
         <v>20</v>
       </c>
       <c r="R55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
-      <c r="U55" s="10" t="s">
-        <v>248</v>
+      <c r="U55" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="V55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y55" s="10" t="s">
-        <v>72</v>
+        <v>246</v>
+      </c>
+      <c r="Y55" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z55" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA55" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA55" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -7347,7 +7378,7 @@
     </row>
     <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -7386,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -7395,31 +7426,31 @@
         <v>20</v>
       </c>
       <c r="R56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
-      <c r="U56" s="10" t="s">
-        <v>252</v>
+      <c r="U56" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="V56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y56" s="10" t="s">
-        <v>72</v>
+        <v>250</v>
+      </c>
+      <c r="Y56" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z56" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA56" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA56" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -7436,7 +7467,7 @@
     </row>
     <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -7475,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P57">
         <v>2</v>
@@ -7484,31 +7515,31 @@
         <v>20</v>
       </c>
       <c r="R57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
-      <c r="U57" s="10" t="s">
-        <v>256</v>
+      <c r="U57" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="V57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y57" s="10" t="s">
-        <v>72</v>
+        <v>254</v>
+      </c>
+      <c r="Y57" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z57" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA57" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA57" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -7525,7 +7556,7 @@
     </row>
     <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -7564,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P58">
         <v>2</v>
@@ -7573,31 +7604,31 @@
         <v>20</v>
       </c>
       <c r="R58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
-      <c r="U58" s="10" t="s">
-        <v>260</v>
+      <c r="U58" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="V58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y58" s="10" t="s">
-        <v>72</v>
+        <v>258</v>
+      </c>
+      <c r="Y58" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z58" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA58" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA58" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7614,7 +7645,7 @@
     </row>
     <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7653,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -7662,31 +7693,31 @@
         <v>20</v>
       </c>
       <c r="R59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
-      <c r="U59" s="10" t="s">
-        <v>264</v>
+      <c r="U59" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="V59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y59" s="10" t="s">
-        <v>72</v>
+        <v>262</v>
+      </c>
+      <c r="Y59" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z59" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA59" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA59" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -7703,7 +7734,7 @@
     </row>
     <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7742,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -7751,31 +7782,31 @@
         <v>20</v>
       </c>
       <c r="R60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
-      <c r="U60" s="10" t="s">
-        <v>264</v>
+      <c r="U60" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y60" s="10" t="s">
-        <v>72</v>
+        <v>266</v>
+      </c>
+      <c r="Y60" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z60" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA60" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA60" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7792,7 +7823,7 @@
     </row>
     <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7831,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -7840,31 +7871,31 @@
         <v>20</v>
       </c>
       <c r="R61" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
-      <c r="U61" s="10" t="s">
-        <v>264</v>
+      <c r="U61" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y61" s="10" t="s">
-        <v>72</v>
+        <v>269</v>
+      </c>
+      <c r="Y61" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z61" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA61" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA61" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7881,7 +7912,7 @@
     </row>
     <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7920,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -7929,31 +7960,31 @@
         <v>20</v>
       </c>
       <c r="R62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
-      <c r="U62" s="10" t="s">
-        <v>264</v>
+      <c r="U62" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y62" s="10" t="s">
-        <v>72</v>
+        <v>272</v>
+      </c>
+      <c r="Y62" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z62" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA62" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA62" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7970,7 +8001,7 @@
     </row>
     <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -8009,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P63">
         <v>2</v>
@@ -8018,31 +8049,31 @@
         <v>20</v>
       </c>
       <c r="R63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
-      <c r="U63" s="10" t="s">
-        <v>264</v>
+      <c r="U63" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y63" s="10" t="s">
-        <v>72</v>
+        <v>275</v>
+      </c>
+      <c r="Y63" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z63" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA63" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA63" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -8059,7 +8090,7 @@
     </row>
     <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -8098,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -8107,31 +8138,31 @@
         <v>20</v>
       </c>
       <c r="R64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
-      <c r="U64" s="10" t="s">
-        <v>264</v>
+      <c r="U64" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y64" s="10" t="s">
-        <v>72</v>
+        <v>278</v>
+      </c>
+      <c r="Y64" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z64" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA64" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA64" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -8148,7 +8179,7 @@
     </row>
     <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -8187,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -8196,31 +8227,31 @@
         <v>20</v>
       </c>
       <c r="R65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T65">
         <v>2</v>
       </c>
-      <c r="U65" s="10" t="s">
-        <v>264</v>
+      <c r="U65" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y65" s="10" t="s">
-        <v>72</v>
+        <v>281</v>
+      </c>
+      <c r="Y65" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z65" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA65" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA65" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -8237,7 +8268,7 @@
     </row>
     <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -8276,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -8285,31 +8316,31 @@
         <v>20</v>
       </c>
       <c r="R66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T66">
         <v>2</v>
       </c>
-      <c r="U66" s="10" t="s">
-        <v>264</v>
+      <c r="U66" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y66" s="10" t="s">
-        <v>72</v>
+        <v>284</v>
+      </c>
+      <c r="Y66" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z66" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA66" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA66" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -8326,7 +8357,7 @@
     </row>
     <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -8365,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -8374,31 +8405,31 @@
         <v>20</v>
       </c>
       <c r="R67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
-      <c r="U67" s="10" t="s">
-        <v>264</v>
+      <c r="U67" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y67" s="10" t="s">
-        <v>72</v>
+        <v>287</v>
+      </c>
+      <c r="Y67" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z67" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA67" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA67" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -8415,7 +8446,7 @@
     </row>
     <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -8454,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -8463,31 +8494,31 @@
         <v>20</v>
       </c>
       <c r="R68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
-      <c r="U68" s="10" t="s">
-        <v>264</v>
+      <c r="U68" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y68" s="10" t="s">
-        <v>72</v>
+        <v>290</v>
+      </c>
+      <c r="Y68" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z68" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA68" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA68" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -8504,7 +8535,7 @@
     </row>
     <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -8543,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -8552,31 +8583,31 @@
         <v>20</v>
       </c>
       <c r="R69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T69">
         <v>2</v>
       </c>
-      <c r="U69" s="10" t="s">
-        <v>264</v>
+      <c r="U69" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y69" s="10" t="s">
-        <v>72</v>
+        <v>293</v>
+      </c>
+      <c r="Y69" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z69" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA69" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA69" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -8593,7 +8624,7 @@
     </row>
     <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8632,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -8641,31 +8672,31 @@
         <v>20</v>
       </c>
       <c r="R70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T70">
         <v>2</v>
       </c>
-      <c r="U70" s="10" t="s">
-        <v>264</v>
+      <c r="U70" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y70" s="10" t="s">
-        <v>72</v>
+        <v>296</v>
+      </c>
+      <c r="Y70" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z70" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA70" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA70" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -8682,7 +8713,7 @@
     </row>
     <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -8721,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -8730,31 +8761,31 @@
         <v>20</v>
       </c>
       <c r="R71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T71">
         <v>2</v>
       </c>
-      <c r="U71" s="10" t="s">
-        <v>264</v>
+      <c r="U71" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y71" s="10" t="s">
-        <v>72</v>
+        <v>299</v>
+      </c>
+      <c r="Y71" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z71" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA71" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA71" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -8771,7 +8802,7 @@
     </row>
     <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8810,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P72">
         <v>2</v>
@@ -8819,31 +8850,31 @@
         <v>20</v>
       </c>
       <c r="R72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
-      <c r="U72" s="10" t="s">
-        <v>264</v>
+      <c r="U72" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y72" s="10" t="s">
-        <v>72</v>
+        <v>302</v>
+      </c>
+      <c r="Y72" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z72" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA72" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA72" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -8860,7 +8891,7 @@
     </row>
     <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -8899,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -8908,31 +8939,31 @@
         <v>20</v>
       </c>
       <c r="R73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
-      <c r="U73" s="10" t="s">
-        <v>264</v>
+      <c r="U73" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y73" s="10" t="s">
-        <v>72</v>
+        <v>305</v>
+      </c>
+      <c r="Y73" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z73" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA73" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA73" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -8949,7 +8980,7 @@
     </row>
     <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8988,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P74">
         <v>2</v>
@@ -8997,31 +9028,31 @@
         <v>20</v>
       </c>
       <c r="R74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
-      <c r="U74" s="10" t="s">
-        <v>264</v>
+      <c r="U74" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y74" s="10" t="s">
-        <v>72</v>
+        <v>308</v>
+      </c>
+      <c r="Y74" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA74" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA74" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9038,7 +9069,7 @@
     </row>
     <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -9077,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -9086,31 +9117,31 @@
         <v>20</v>
       </c>
       <c r="R75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T75">
         <v>2</v>
       </c>
-      <c r="U75" s="10" t="s">
-        <v>264</v>
+      <c r="U75" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y75" s="10" t="s">
-        <v>72</v>
+        <v>311</v>
+      </c>
+      <c r="Y75" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z75" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA75" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA75" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -9127,7 +9158,7 @@
     </row>
     <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -9166,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P76">
         <v>2</v>
@@ -9175,31 +9206,31 @@
         <v>20</v>
       </c>
       <c r="R76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T76">
         <v>2</v>
       </c>
-      <c r="U76" s="10" t="s">
-        <v>264</v>
+      <c r="U76" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y76" s="10" t="s">
-        <v>72</v>
+        <v>314</v>
+      </c>
+      <c r="Y76" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z76" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA76" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA76" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -9216,7 +9247,7 @@
     </row>
     <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -9255,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -9264,31 +9295,31 @@
         <v>20</v>
       </c>
       <c r="R77" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
-      <c r="U77" s="10" t="s">
-        <v>264</v>
+      <c r="U77" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y77" s="10" t="s">
-        <v>72</v>
+        <v>317</v>
+      </c>
+      <c r="Y77" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z77" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA77" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA77" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB77">
         <v>0</v>
@@ -9305,7 +9336,7 @@
     </row>
     <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -9344,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -9353,31 +9384,31 @@
         <v>20</v>
       </c>
       <c r="R78" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T78">
         <v>2</v>
       </c>
-      <c r="U78" s="10" t="s">
-        <v>264</v>
+      <c r="U78" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V78" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y78" s="10" t="s">
-        <v>72</v>
+        <v>320</v>
+      </c>
+      <c r="Y78" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z78" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA78" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA78" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB78">
         <v>0</v>
@@ -9394,7 +9425,7 @@
     </row>
     <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -9433,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -9442,31 +9473,31 @@
         <v>20</v>
       </c>
       <c r="R79" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
-      <c r="U79" s="10" t="s">
-        <v>264</v>
+      <c r="U79" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y79" s="10" t="s">
-        <v>72</v>
+        <v>323</v>
+      </c>
+      <c r="Y79" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z79" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA79" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA79" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB79">
         <v>0</v>
@@ -9483,7 +9514,7 @@
     </row>
     <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -9522,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -9531,31 +9562,31 @@
         <v>20</v>
       </c>
       <c r="R80" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
-      <c r="U80" s="10" t="s">
-        <v>264</v>
+      <c r="U80" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V80" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y80" s="10" t="s">
-        <v>72</v>
+        <v>326</v>
+      </c>
+      <c r="Y80" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z80" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA80" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA80" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -9572,7 +9603,7 @@
     </row>
     <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -9611,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -9620,31 +9651,31 @@
         <v>20</v>
       </c>
       <c r="R81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T81">
         <v>2</v>
       </c>
-      <c r="U81" s="10" t="s">
-        <v>264</v>
+      <c r="U81" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V81" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y81" s="10" t="s">
-        <v>72</v>
+        <v>329</v>
+      </c>
+      <c r="Y81" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z81" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA81" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA81" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -9661,7 +9692,7 @@
     </row>
     <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -9700,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P82">
         <v>2</v>
@@ -9709,31 +9740,31 @@
         <v>20</v>
       </c>
       <c r="R82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T82">
         <v>2</v>
       </c>
-      <c r="U82" s="10" t="s">
-        <v>264</v>
+      <c r="U82" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V82" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y82" s="10" t="s">
-        <v>72</v>
+        <v>332</v>
+      </c>
+      <c r="Y82" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z82" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA82" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA82" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB82">
         <v>0</v>
@@ -9750,7 +9781,7 @@
     </row>
     <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -9789,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -9798,31 +9829,31 @@
         <v>20</v>
       </c>
       <c r="R83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
-      <c r="U83" s="10" t="s">
-        <v>264</v>
+      <c r="U83" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V83" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y83" s="10" t="s">
-        <v>72</v>
+        <v>335</v>
+      </c>
+      <c r="Y83" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z83" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA83" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA83" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB83">
         <v>0</v>
@@ -9839,7 +9870,7 @@
     </row>
     <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -9878,7 +9909,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -9887,31 +9918,31 @@
         <v>20</v>
       </c>
       <c r="R84" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
-      <c r="U84" s="10" t="s">
-        <v>264</v>
+      <c r="U84" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y84" s="10" t="s">
-        <v>72</v>
+        <v>338</v>
+      </c>
+      <c r="Y84" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="Z84" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA84" s="11" t="s">
         <v>74</v>
+      </c>
+      <c r="AA84" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -9928,7 +9959,7 @@
     </row>
     <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -9967,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -9976,46 +10007,141 @@
         <v>20</v>
       </c>
       <c r="R85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T85">
         <v>2</v>
       </c>
-      <c r="U85" s="10" t="s">
-        <v>264</v>
+      <c r="U85" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W85">
         <v>0</v>
       </c>
       <c r="X85" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y85" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA85" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
+      <c r="A86" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
         <v>343</v>
       </c>
-      <c r="Y85" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z85" t="s">
+      <c r="P86">
+        <v>2</v>
+      </c>
+      <c r="Q86">
+        <v>20</v>
+      </c>
+      <c r="R86" t="s">
+        <v>69</v>
+      </c>
+      <c r="T86">
+        <v>2</v>
+      </c>
+      <c r="U86" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="V86" t="s">
+        <v>71</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y86" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AA85" s="11" t="s">
+      <c r="Z86" t="s">
         <v>74</v>
       </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>0</v>
-      </c>
-      <c r="AD85">
-        <v>0</v>
-      </c>
-      <c r="AE85">
+      <c r="AA86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AC7 AD7:AE7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -10025,10 +10151,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10037,186 +10163,186 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:30">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Q1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="R1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="T1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="U1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="V1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="X1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Y1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="Z1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AB1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AC1" s="1" t="s">
         <v>372</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -10588,159 +10714,257 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="68.25" spans="1:30">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:30">
+      <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="J8" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="K8" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="L8" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="M8" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="N8" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="O8" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="P8" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="Q8" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="R8" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="S8" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="T8" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="U8" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="V8" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="W8" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="X8" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Y8" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="Z8" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AA8" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AB8" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AC8" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10"/>
+      <c r="AD8" s="4" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="9"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10"/>
+      <c r="A14" s="9"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10"/>
+      <c r="A15" s="9"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10"/>
+      <c r="A16" s="9"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10"/>
+      <c r="A17" s="9"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="9"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10"/>
+      <c r="A19" s="9"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,33 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
     <sheet name="Property2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="400">
   <si>
     <t>Id</t>
   </si>
@@ -1232,14 +1245,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1253,159 +1260,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1424,194 +1280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1735,251 +1405,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2018,61 +1446,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2086,12 +1466,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2423,32 +1808,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="48.875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="8" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:31">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2543,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:31">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2638,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:31">
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2733,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:31">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -2828,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:31">
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2923,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:31">
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -3018,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:31">
+    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -3113,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="41.25" spans="1:31">
+    <row r="8" spans="1:31" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -3193,7 +2579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>67</v>
       </c>
@@ -3282,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>76</v>
       </c>
@@ -3371,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>80</v>
       </c>
@@ -3460,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>84</v>
       </c>
@@ -3549,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>88</v>
       </c>
@@ -3638,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
@@ -3727,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>96</v>
       </c>
@@ -3816,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>100</v>
       </c>
@@ -3905,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>103</v>
       </c>
@@ -3994,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>106</v>
       </c>
@@ -4083,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>109</v>
       </c>
@@ -4172,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>112</v>
       </c>
@@ -4261,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>115</v>
       </c>
@@ -4350,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
@@ -4439,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>121</v>
       </c>
@@ -4528,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>124</v>
       </c>
@@ -4617,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>127</v>
       </c>
@@ -4706,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>130</v>
       </c>
@@ -4795,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>133</v>
       </c>
@@ -4884,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>136</v>
       </c>
@@ -4973,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -5062,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -5151,7 +4537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -5240,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>151</v>
       </c>
@@ -5329,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -5418,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -5507,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -5596,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>167</v>
       </c>
@@ -5685,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>171</v>
       </c>
@@ -5774,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -5863,7 +5249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>179</v>
       </c>
@@ -5952,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -6041,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>187</v>
       </c>
@@ -6130,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>191</v>
       </c>
@@ -6219,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -6308,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>199</v>
       </c>
@@ -6397,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -6486,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -6575,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -6664,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -6753,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -6842,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6931,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>227</v>
       </c>
@@ -7020,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>231</v>
       </c>
@@ -7109,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>235</v>
       </c>
@@ -7198,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -7287,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>243</v>
       </c>
@@ -7376,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>247</v>
       </c>
@@ -7465,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>251</v>
       </c>
@@ -7554,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -7643,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>259</v>
       </c>
@@ -7732,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>263</v>
       </c>
@@ -7821,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>267</v>
       </c>
@@ -7910,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>270</v>
       </c>
@@ -7999,7 +7385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>273</v>
       </c>
@@ -8088,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -8177,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -8266,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -8355,7 +7741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -8444,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -8533,7 +7919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -8622,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -8711,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -8800,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -8889,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>303</v>
       </c>
@@ -8978,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -9067,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>309</v>
       </c>
@@ -9156,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>312</v>
       </c>
@@ -9245,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -9334,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>318</v>
       </c>
@@ -9423,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>321</v>
       </c>
@@ -9512,7 +8898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>324</v>
       </c>
@@ -9601,7 +8987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>327</v>
       </c>
@@ -9690,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>330</v>
       </c>
@@ -9779,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>333</v>
       </c>
@@ -9868,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>336</v>
       </c>
@@ -9957,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>339</v>
       </c>
@@ -10046,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>342</v>
       </c>
@@ -10142,27 +9528,26 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:30">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10254,7 +9639,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:30">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -10346,7 +9731,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:30">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -10438,7 +9823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:30">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -10530,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:30">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -10622,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:30">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -10714,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:30">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -10806,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="68.25" spans="1:30">
+    <row r="8" spans="1:30" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -10898,64 +10283,64 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
     </row>
   </sheetData>
@@ -10965,7 +10350,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="399">
   <si>
     <t>Id</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t>EquipIDRef_1</t>
-  </si>
-  <si>
-    <t>UI\SteampunkUI\resource\icons\imgbtn_Equipment</t>
   </si>
   <si>
     <t>UI/Hero/hero_tx_mul</t>
@@ -1811,10 +1808,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9:Z86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2649,11 +2646,11 @@
       <c r="Y9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2670,46 +2667,46 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>76</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2724,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s">
         <v>71</v>
@@ -2733,16 +2730,16 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2759,46 +2756,46 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>81</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2813,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s">
         <v>71</v>
@@ -2822,16 +2819,16 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA11" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA11" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2848,46 +2845,46 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>84</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>85</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2902,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
         <v>71</v>
@@ -2911,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Z12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA12" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2937,46 +2934,46 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
         <v>88</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>89</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2991,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V13" t="s">
         <v>71</v>
@@ -3000,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Z13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA13" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA13" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3026,46 +3023,46 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
         <v>92</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>93</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3080,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V14" t="s">
         <v>71</v>
@@ -3089,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z14" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA14" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA14" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3115,46 +3112,46 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
         <v>96</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>97</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3169,7 +3166,7 @@
         <v>2</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V15" t="s">
         <v>71</v>
@@ -3178,16 +3175,16 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Z15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3204,7 +3201,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3243,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3258,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V16" t="s">
         <v>71</v>
@@ -3267,16 +3264,16 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA16" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3293,7 +3290,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3332,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3347,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V17" t="s">
         <v>71</v>
@@ -3356,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA17" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3382,7 +3379,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3421,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3436,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V18" t="s">
         <v>71</v>
@@ -3445,16 +3442,16 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="Z18" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA18" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA18" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3510,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3525,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V19" t="s">
         <v>71</v>
@@ -3534,16 +3531,16 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA19" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA19" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -3560,7 +3557,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3599,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3614,7 +3611,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V20" t="s">
         <v>71</v>
@@ -3623,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA20" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA20" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3688,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3703,7 +3700,7 @@
         <v>2</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V21" t="s">
         <v>71</v>
@@ -3712,16 +3709,16 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA21" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA21" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3738,7 +3735,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3777,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="V22" t="s">
         <v>71</v>
@@ -3801,16 +3798,16 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3866,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3881,7 +3878,7 @@
         <v>2</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V23" t="s">
         <v>71</v>
@@ -3890,16 +3887,16 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Z23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA23" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA23" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3955,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3970,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V24" t="s">
         <v>71</v>
@@ -3979,16 +3976,16 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA24" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA24" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4059,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V25" t="s">
         <v>71</v>
@@ -4068,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA25" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA25" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -4094,7 +4091,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4148,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V26" t="s">
         <v>71</v>
@@ -4157,16 +4154,16 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z26" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA26" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA26" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -4183,7 +4180,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4237,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V27" t="s">
         <v>71</v>
@@ -4246,16 +4243,16 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Z27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA27" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA27" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -4272,7 +4269,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4326,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V28" t="s">
         <v>71</v>
@@ -4335,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Z28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA28" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA28" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -4361,46 +4358,46 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>139</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>140</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -4415,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V29" t="s">
         <v>71</v>
@@ -4424,16 +4421,16 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA29" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA29" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4450,46 +4447,46 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30" t="s">
         <v>143</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30" t="s">
-        <v>144</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -4504,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V30" t="s">
         <v>71</v>
@@ -4513,16 +4510,16 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y30" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA30" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA30" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4539,46 +4536,46 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31" t="s">
         <v>147</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>148</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -4593,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V31" t="s">
         <v>71</v>
@@ -4602,16 +4599,16 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA31" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA31" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4628,46 +4625,46 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
         <v>151</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32" t="s">
-        <v>152</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -4682,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V32" t="s">
         <v>71</v>
@@ -4691,16 +4688,16 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA32" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA32" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4717,46 +4714,46 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33" t="s">
         <v>155</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33" t="s">
-        <v>156</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -4771,7 +4768,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V33" t="s">
         <v>71</v>
@@ -4780,16 +4777,16 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y33" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA33" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA33" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4806,46 +4803,46 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34" t="s">
         <v>159</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34" t="s">
-        <v>160</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -4860,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V34" t="s">
         <v>71</v>
@@ -4869,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y34" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA34" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA34" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4895,46 +4892,46 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="s">
         <v>163</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35" t="s">
-        <v>164</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -4949,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V35" t="s">
         <v>71</v>
@@ -4958,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Y35" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA35" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA35" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4984,46 +4981,46 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
         <v>167</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36" t="s">
-        <v>168</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -5038,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V36" t="s">
         <v>71</v>
@@ -5047,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y36" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z36" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA36" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA36" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -5073,46 +5070,46 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
         <v>171</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37" t="s">
-        <v>172</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -5127,7 +5124,7 @@
         <v>2</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V37" t="s">
         <v>71</v>
@@ -5136,16 +5133,16 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA37" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA37" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -5162,46 +5159,46 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38" t="s">
         <v>175</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38" t="s">
-        <v>176</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -5216,7 +5213,7 @@
         <v>2</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V38" t="s">
         <v>71</v>
@@ -5225,16 +5222,16 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA38" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA38" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5251,46 +5248,46 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
         <v>179</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39" t="s">
-        <v>180</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -5305,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V39" t="s">
         <v>71</v>
@@ -5314,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y39" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z39" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA39" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA39" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5340,46 +5337,46 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
         <v>183</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>184</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -5394,7 +5391,7 @@
         <v>2</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V40" t="s">
         <v>71</v>
@@ -5403,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y40" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z40" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA40" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA40" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5429,46 +5426,46 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
         <v>187</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41" t="s">
-        <v>188</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -5483,7 +5480,7 @@
         <v>2</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V41" t="s">
         <v>71</v>
@@ -5492,16 +5489,16 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y41" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA41" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA41" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5518,46 +5515,46 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
         <v>191</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>192</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -5572,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V42" t="s">
         <v>71</v>
@@ -5581,16 +5578,16 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z42" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA42" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA42" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5607,46 +5604,46 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
         <v>195</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>196</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -5661,7 +5658,7 @@
         <v>2</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V43" t="s">
         <v>71</v>
@@ -5670,16 +5667,16 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z43" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA43" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA43" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5696,46 +5693,46 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
         <v>199</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44" t="s">
-        <v>200</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -5750,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V44" t="s">
         <v>71</v>
@@ -5759,16 +5756,16 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z44" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA44" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA44" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5785,46 +5782,46 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
         <v>203</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45" t="s">
-        <v>204</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -5839,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V45" t="s">
         <v>71</v>
@@ -5848,16 +5845,16 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z45" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA45" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA45" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5874,46 +5871,46 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
         <v>207</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46" t="s">
-        <v>208</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -5928,7 +5925,7 @@
         <v>2</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V46" t="s">
         <v>71</v>
@@ -5937,16 +5934,16 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z46" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA46" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA46" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5963,46 +5960,46 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
         <v>211</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47" t="s">
-        <v>212</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -6017,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V47" t="s">
         <v>71</v>
@@ -6026,16 +6023,16 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z47" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA47" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA47" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6052,46 +6049,46 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
         <v>215</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" t="s">
-        <v>216</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -6106,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V48" t="s">
         <v>71</v>
@@ -6115,16 +6112,16 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z48" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA48" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA48" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -6141,46 +6138,46 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
         <v>219</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49" t="s">
-        <v>220</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -6195,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V49" t="s">
         <v>71</v>
@@ -6204,16 +6201,16 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z49" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA49" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA49" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6230,46 +6227,46 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
         <v>223</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50" t="s">
-        <v>224</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -6284,7 +6281,7 @@
         <v>2</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V50" t="s">
         <v>71</v>
@@ -6293,16 +6290,16 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z50" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA50" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA50" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6319,46 +6316,46 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>227</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51" t="s">
-        <v>228</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -6373,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="V51" t="s">
         <v>71</v>
@@ -6382,16 +6379,16 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y51" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z51" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA51" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA51" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6408,46 +6405,46 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
         <v>231</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52" t="s">
-        <v>232</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -6462,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V52" t="s">
         <v>71</v>
@@ -6471,16 +6468,16 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA52" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA52" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6497,46 +6494,46 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
         <v>235</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53" t="s">
-        <v>236</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -6551,7 +6548,7 @@
         <v>2</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="V53" t="s">
         <v>71</v>
@@ -6560,16 +6557,16 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA53" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA53" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6586,46 +6583,46 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
         <v>239</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54" t="s">
-        <v>240</v>
       </c>
       <c r="P54">
         <v>2</v>
@@ -6640,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V54" t="s">
         <v>71</v>
@@ -6649,16 +6646,16 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z54" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA54" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA54" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6675,46 +6672,46 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
         <v>243</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55" t="s">
-        <v>244</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -6729,7 +6726,7 @@
         <v>2</v>
       </c>
       <c r="U55" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V55" t="s">
         <v>71</v>
@@ -6738,16 +6735,16 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Y55" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z55" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA55" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA55" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -6764,46 +6761,46 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
         <v>247</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56" t="s">
-        <v>248</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -6818,7 +6815,7 @@
         <v>2</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V56" t="s">
         <v>71</v>
@@ -6827,16 +6824,16 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Y56" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z56" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA56" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA56" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6853,46 +6850,46 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
         <v>251</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57" t="s">
-        <v>252</v>
       </c>
       <c r="P57">
         <v>2</v>
@@ -6907,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V57" t="s">
         <v>71</v>
@@ -6916,16 +6913,16 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Y57" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z57" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA57" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA57" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -6942,46 +6939,46 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
         <v>255</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58" t="s">
-        <v>256</v>
       </c>
       <c r="P58">
         <v>2</v>
@@ -6996,7 +6993,7 @@
         <v>2</v>
       </c>
       <c r="U58" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V58" t="s">
         <v>71</v>
@@ -7005,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Y58" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z58" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA58" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA58" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7031,46 +7028,46 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
         <v>259</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59" t="s">
-        <v>260</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -7085,7 +7082,7 @@
         <v>2</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V59" t="s">
         <v>71</v>
@@ -7094,16 +7091,16 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Y59" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z59" t="s">
+        <v>258</v>
+      </c>
+      <c r="AA59" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA59" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -7120,46 +7117,46 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60" t="s">
         <v>263</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60" t="s">
-        <v>264</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -7174,7 +7171,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V60" t="s">
         <v>71</v>
@@ -7183,16 +7180,16 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Y60" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z60" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA60" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA60" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7209,46 +7206,46 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61" t="s">
         <v>267</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>0</v>
-      </c>
-      <c r="O61" t="s">
-        <v>268</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -7263,7 +7260,7 @@
         <v>2</v>
       </c>
       <c r="U61" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V61" t="s">
         <v>71</v>
@@ -7272,16 +7269,16 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y61" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z61" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA61" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA61" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7298,46 +7295,46 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
         <v>270</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62" t="s">
-        <v>271</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -7352,7 +7349,7 @@
         <v>2</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V62" t="s">
         <v>71</v>
@@ -7361,16 +7358,16 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y62" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z62" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA62" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA62" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7387,46 +7384,46 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
         <v>273</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63" t="s">
-        <v>274</v>
       </c>
       <c r="P63">
         <v>2</v>
@@ -7441,7 +7438,7 @@
         <v>2</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V63" t="s">
         <v>71</v>
@@ -7450,16 +7447,16 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Y63" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z63" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA63" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA63" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7476,46 +7473,46 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
         <v>276</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64" t="s">
-        <v>277</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -7530,7 +7527,7 @@
         <v>2</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V64" t="s">
         <v>71</v>
@@ -7539,16 +7536,16 @@
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Y64" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z64" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA64" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA64" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -7565,46 +7562,46 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
         <v>279</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>0</v>
-      </c>
-      <c r="O65" t="s">
-        <v>280</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -7619,7 +7616,7 @@
         <v>2</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V65" t="s">
         <v>71</v>
@@ -7628,16 +7625,16 @@
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y65" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z65" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA65" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA65" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7654,46 +7651,46 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
         <v>282</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66" t="s">
-        <v>283</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -7708,7 +7705,7 @@
         <v>2</v>
       </c>
       <c r="U66" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V66" t="s">
         <v>71</v>
@@ -7717,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y66" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z66" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA66" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA66" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -7743,46 +7740,46 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
         <v>285</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67" t="s">
-        <v>286</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -7797,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V67" t="s">
         <v>71</v>
@@ -7806,16 +7803,16 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="Y67" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z67" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA67" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA67" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -7832,46 +7829,46 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>287</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
         <v>288</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68" t="s">
-        <v>289</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -7886,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V68" t="s">
         <v>71</v>
@@ -7895,16 +7892,16 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Y68" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z68" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA68" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA68" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -7921,46 +7918,46 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
         <v>291</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69" t="s">
-        <v>292</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -7975,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V69" t="s">
         <v>71</v>
@@ -7984,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Y69" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z69" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA69" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA69" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -8010,46 +8007,46 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
         <v>294</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70" t="s">
-        <v>295</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -8064,7 +8061,7 @@
         <v>2</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V70" t="s">
         <v>71</v>
@@ -8073,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y70" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z70" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA70" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA70" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -8099,46 +8096,46 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
         <v>297</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71" t="s">
-        <v>298</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -8153,7 +8150,7 @@
         <v>2</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V71" t="s">
         <v>71</v>
@@ -8162,16 +8159,16 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z71" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA71" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA71" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -8188,46 +8185,46 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>299</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
         <v>300</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72" t="s">
-        <v>301</v>
       </c>
       <c r="P72">
         <v>2</v>
@@ -8242,7 +8239,7 @@
         <v>2</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V72" t="s">
         <v>71</v>
@@ -8251,16 +8248,16 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y72" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z72" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA72" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA72" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -8277,46 +8274,46 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
         <v>303</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>304</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -8331,7 +8328,7 @@
         <v>2</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V73" t="s">
         <v>71</v>
@@ -8340,16 +8337,16 @@
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Y73" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z73" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA73" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA73" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -8366,46 +8363,46 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
         <v>306</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74" t="s">
-        <v>307</v>
       </c>
       <c r="P74">
         <v>2</v>
@@ -8420,7 +8417,7 @@
         <v>2</v>
       </c>
       <c r="U74" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V74" t="s">
         <v>71</v>
@@ -8429,16 +8426,16 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Y74" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z74" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA74" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA74" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -8455,46 +8452,46 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>308</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
         <v>309</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="O75" t="s">
-        <v>310</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -8509,7 +8506,7 @@
         <v>2</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V75" t="s">
         <v>71</v>
@@ -8518,16 +8515,16 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y75" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z75" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA75" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA75" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -8544,46 +8541,46 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
         <v>312</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76" t="s">
-        <v>313</v>
       </c>
       <c r="P76">
         <v>2</v>
@@ -8598,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V76" t="s">
         <v>71</v>
@@ -8607,16 +8604,16 @@
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Y76" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z76" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA76" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA76" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -8633,46 +8630,46 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
         <v>315</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77" t="s">
-        <v>316</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -8687,7 +8684,7 @@
         <v>2</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V77" t="s">
         <v>71</v>
@@ -8696,16 +8693,16 @@
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Y77" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z77" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA77" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA77" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB77">
         <v>0</v>
@@ -8722,46 +8719,46 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78" t="s">
         <v>318</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78" t="s">
-        <v>319</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -8776,7 +8773,7 @@
         <v>2</v>
       </c>
       <c r="U78" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V78" t="s">
         <v>71</v>
@@ -8785,16 +8782,16 @@
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Y78" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z78" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA78" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA78" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB78">
         <v>0</v>
@@ -8811,46 +8808,46 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
         <v>321</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79" t="s">
-        <v>322</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -8865,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V79" t="s">
         <v>71</v>
@@ -8874,16 +8871,16 @@
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y79" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z79" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA79" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA79" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB79">
         <v>0</v>
@@ -8900,46 +8897,46 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
         <v>324</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80" t="s">
-        <v>325</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -8954,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V80" t="s">
         <v>71</v>
@@ -8963,16 +8960,16 @@
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Y80" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z80" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA80" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA80" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -8989,46 +8986,46 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
         <v>327</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81" t="s">
-        <v>328</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -9043,7 +9040,7 @@
         <v>2</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V81" t="s">
         <v>71</v>
@@ -9052,16 +9049,16 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y81" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z81" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA81" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA81" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -9078,46 +9075,46 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
         <v>330</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82" t="s">
-        <v>331</v>
       </c>
       <c r="P82">
         <v>2</v>
@@ -9132,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V82" t="s">
         <v>71</v>
@@ -9141,16 +9138,16 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y82" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z82" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA82" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA82" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB82">
         <v>0</v>
@@ -9167,46 +9164,46 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83" t="s">
         <v>333</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83" t="s">
-        <v>334</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -9221,7 +9218,7 @@
         <v>2</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V83" t="s">
         <v>71</v>
@@ -9230,16 +9227,16 @@
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Y83" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z83" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA83" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA83" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB83">
         <v>0</v>
@@ -9256,46 +9253,46 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84" t="s">
         <v>336</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84" t="s">
-        <v>337</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -9310,7 +9307,7 @@
         <v>2</v>
       </c>
       <c r="U84" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V84" t="s">
         <v>71</v>
@@ -9319,16 +9316,16 @@
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Y84" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z84" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA84" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA84" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -9345,46 +9342,46 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
         <v>339</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>0</v>
-      </c>
-      <c r="O85" t="s">
-        <v>340</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -9399,7 +9396,7 @@
         <v>2</v>
       </c>
       <c r="U85" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V85" t="s">
         <v>71</v>
@@ -9408,16 +9405,16 @@
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z85" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA85" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA85" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -9434,46 +9431,46 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
         <v>342</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86">
-        <v>0</v>
-      </c>
-      <c r="O86" t="s">
-        <v>343</v>
       </c>
       <c r="P86">
         <v>2</v>
@@ -9488,7 +9485,7 @@
         <v>2</v>
       </c>
       <c r="U86" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V86" t="s">
         <v>71</v>
@@ -9497,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="X86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z86" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA86" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="AA86" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="AB86">
         <v>0</v>
@@ -9524,7 +9521,7 @@
   </sheetData>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AC7 AD7:AE7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AE7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9552,91 +9549,91 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -10196,13 +10193,13 @@
         <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>376</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>45</v>
@@ -10214,73 +10211,73 @@
         <v>46</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="S8" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="T8" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AB8" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AD8" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="400">
   <si>
     <t>Id</t>
   </si>
@@ -1237,13 +1237,17 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1254,6 +1258,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1444,7 +1453,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1472,6 +1481,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1806,32 +1818,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE86"/>
+  <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9:Z86"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="48.81640625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="8" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="8" width="14.6328125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2116,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2306,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2401,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2496,220 +2508,226 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AE8" s="4" t="s">
+      <c r="AE9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>68</v>
       </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-      <c r="R9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
       <c r="P10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q10">
         <v>20</v>
@@ -2721,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s">
         <v>71</v>
@@ -2730,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AA10" s="10" t="s">
         <v>74</v>
@@ -2754,9 +2772,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2795,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2810,7 +2828,7 @@
         <v>2</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s">
         <v>71</v>
@@ -2819,13 +2837,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>74</v>
@@ -2843,9 +2861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2884,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2899,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s">
         <v>71</v>
@@ -2908,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="10" t="s">
         <v>74</v>
@@ -2932,9 +2950,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2973,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2988,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V13" t="s">
         <v>71</v>
@@ -2997,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Y13" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>74</v>
@@ -3021,9 +3039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3062,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3077,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="V14" t="s">
         <v>71</v>
@@ -3086,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AA14" s="10" t="s">
         <v>74</v>
@@ -3110,9 +3128,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3151,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3166,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="V15" t="s">
         <v>71</v>
@@ -3175,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y15" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AA15" s="10" t="s">
         <v>74</v>
@@ -3199,9 +3217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3240,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3255,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V16" t="s">
         <v>71</v>
@@ -3264,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y16" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AA16" s="10" t="s">
         <v>74</v>
@@ -3288,9 +3306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3329,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3344,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="V17" t="s">
         <v>71</v>
@@ -3353,13 +3371,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Y17" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AA17" s="10" t="s">
         <v>74</v>
@@ -3377,9 +3395,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3418,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3433,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V18" t="s">
         <v>71</v>
@@ -3442,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z18" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AA18" s="10" t="s">
         <v>74</v>
@@ -3466,9 +3484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3507,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3522,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V19" t="s">
         <v>71</v>
@@ -3531,13 +3549,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z19" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AA19" s="10" t="s">
         <v>74</v>
@@ -3555,9 +3573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3596,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3611,7 +3629,7 @@
         <v>2</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V20" t="s">
         <v>71</v>
@@ -3620,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y20" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AA20" s="10" t="s">
         <v>74</v>
@@ -3644,9 +3662,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3685,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3700,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V21" t="s">
         <v>71</v>
@@ -3709,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AA21" s="10" t="s">
         <v>74</v>
@@ -3733,9 +3751,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3774,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3789,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V22" t="s">
         <v>71</v>
@@ -3798,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AA22" s="10" t="s">
         <v>74</v>
@@ -3822,9 +3840,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3863,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3878,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="V23" t="s">
         <v>71</v>
@@ -3887,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y23" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AA23" s="10" t="s">
         <v>74</v>
@@ -3911,9 +3929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3952,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3967,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V24" t="s">
         <v>71</v>
@@ -3976,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AA24" s="10" t="s">
         <v>74</v>
@@ -4000,9 +4018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4041,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>20</v>
@@ -4056,7 +4074,7 @@
         <v>2</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V25" t="s">
         <v>71</v>
@@ -4065,13 +4083,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AA25" s="10" t="s">
         <v>74</v>
@@ -4089,9 +4107,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4145,7 +4163,7 @@
         <v>2</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V26" t="s">
         <v>71</v>
@@ -4154,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Y26" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AA26" s="10" t="s">
         <v>74</v>
@@ -4178,9 +4196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4234,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="V27" t="s">
         <v>71</v>
@@ -4243,13 +4261,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y27" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AA27" s="10" t="s">
         <v>74</v>
@@ -4267,9 +4285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4323,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="V28" t="s">
         <v>71</v>
@@ -4332,13 +4350,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Y28" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AA28" s="10" t="s">
         <v>74</v>
@@ -4356,9 +4374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>138</v>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4397,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -4412,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V29" t="s">
         <v>71</v>
@@ -4421,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Y29" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z29" t="s">
-        <v>138</v>
+      <c r="Z29" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="AA29" s="10" t="s">
         <v>74</v>
@@ -4445,9 +4463,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4486,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -4501,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V30" t="s">
         <v>71</v>
@@ -4510,13 +4528,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Y30" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AA30" s="10" t="s">
         <v>74</v>
@@ -4534,9 +4552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4575,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -4590,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V31" t="s">
         <v>71</v>
@@ -4599,13 +4617,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y31" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z31" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AA31" s="10" t="s">
         <v>74</v>
@@ -4623,9 +4641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4664,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -4679,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V32" t="s">
         <v>71</v>
@@ -4688,13 +4706,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y32" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AA32" s="10" t="s">
         <v>74</v>
@@ -4712,9 +4730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4753,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -4768,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="V33" t="s">
         <v>71</v>
@@ -4777,13 +4795,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Y33" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AA33" s="10" t="s">
         <v>74</v>
@@ -4801,9 +4819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4842,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -4857,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V34" t="s">
         <v>71</v>
@@ -4866,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Y34" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AA34" s="10" t="s">
         <v>74</v>
@@ -4890,9 +4908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4931,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -4946,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V35" t="s">
         <v>71</v>
@@ -4955,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Y35" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>74</v>
@@ -4979,9 +4997,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5020,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -5035,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="V36" t="s">
         <v>71</v>
@@ -5044,13 +5062,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Y36" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AA36" s="10" t="s">
         <v>74</v>
@@ -5068,9 +5086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5109,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -5124,7 +5142,7 @@
         <v>2</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="V37" t="s">
         <v>71</v>
@@ -5133,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AA37" s="10" t="s">
         <v>74</v>
@@ -5157,9 +5175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5198,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -5213,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="V38" t="s">
         <v>71</v>
@@ -5222,13 +5240,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z38" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AA38" s="10" t="s">
         <v>74</v>
@@ -5246,9 +5264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5287,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -5302,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="V39" t="s">
         <v>71</v>
@@ -5311,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Y39" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z39" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AA39" s="10" t="s">
         <v>74</v>
@@ -5335,9 +5353,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5376,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -5391,7 +5409,7 @@
         <v>2</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="V40" t="s">
         <v>71</v>
@@ -5400,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Y40" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AA40" s="10" t="s">
         <v>74</v>
@@ -5424,9 +5442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5465,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -5480,7 +5498,7 @@
         <v>2</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V41" t="s">
         <v>71</v>
@@ -5489,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Y41" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AA41" s="10" t="s">
         <v>74</v>
@@ -5513,9 +5531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5554,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -5569,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="V42" t="s">
         <v>71</v>
@@ -5578,13 +5596,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Y42" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AA42" s="10" t="s">
         <v>74</v>
@@ -5602,9 +5620,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5643,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -5658,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="V43" t="s">
         <v>71</v>
@@ -5667,13 +5685,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Y43" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AA43" s="10" t="s">
         <v>74</v>
@@ -5691,9 +5709,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5732,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -5747,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="V44" t="s">
         <v>71</v>
@@ -5756,13 +5774,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Y44" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z44" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AA44" s="10" t="s">
         <v>74</v>
@@ -5780,9 +5798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5821,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -5836,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="V45" t="s">
         <v>71</v>
@@ -5845,13 +5863,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Y45" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AA45" s="10" t="s">
         <v>74</v>
@@ -5869,9 +5887,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5910,7 +5928,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -5925,7 +5943,7 @@
         <v>2</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="V46" t="s">
         <v>71</v>
@@ -5934,13 +5952,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Y46" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z46" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AA46" s="10" t="s">
         <v>74</v>
@@ -5958,9 +5976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5999,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -6014,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="V47" t="s">
         <v>71</v>
@@ -6023,13 +6041,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Y47" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z47" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AA47" s="10" t="s">
         <v>74</v>
@@ -6047,9 +6065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6088,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -6103,7 +6121,7 @@
         <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="V48" t="s">
         <v>71</v>
@@ -6112,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Y48" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AA48" s="10" t="s">
         <v>74</v>
@@ -6136,9 +6154,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6177,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -6192,7 +6210,7 @@
         <v>2</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="V49" t="s">
         <v>71</v>
@@ -6201,13 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AA49" s="10" t="s">
         <v>74</v>
@@ -6225,9 +6243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6266,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -6281,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="V50" t="s">
         <v>71</v>
@@ -6290,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Y50" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z50" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AA50" s="10" t="s">
         <v>74</v>
@@ -6314,9 +6332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6355,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -6370,7 +6388,7 @@
         <v>2</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="V51" t="s">
         <v>71</v>
@@ -6379,13 +6397,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Y51" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z51" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA51" s="10" t="s">
         <v>74</v>
@@ -6403,9 +6421,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6444,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -6459,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="V52" t="s">
         <v>71</v>
@@ -6468,13 +6486,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Y52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z52" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AA52" s="10" t="s">
         <v>74</v>
@@ -6492,9 +6510,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6533,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -6548,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="V53" t="s">
         <v>71</v>
@@ -6557,13 +6575,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Y53" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z53" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AA53" s="10" t="s">
         <v>74</v>
@@ -6581,9 +6599,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6622,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P54">
         <v>2</v>
@@ -6637,7 +6655,7 @@
         <v>2</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="V54" t="s">
         <v>71</v>
@@ -6646,13 +6664,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Y54" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z54" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AA54" s="10" t="s">
         <v>74</v>
@@ -6670,9 +6688,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6711,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -6726,7 +6744,7 @@
         <v>2</v>
       </c>
       <c r="U55" s="9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="V55" t="s">
         <v>71</v>
@@ -6735,13 +6753,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Y55" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z55" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AA55" s="10" t="s">
         <v>74</v>
@@ -6759,9 +6777,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6800,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -6815,7 +6833,7 @@
         <v>2</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="V56" t="s">
         <v>71</v>
@@ -6824,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Y56" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z56" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AA56" s="10" t="s">
         <v>74</v>
@@ -6848,9 +6866,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6889,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P57">
         <v>2</v>
@@ -6904,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="V57" t="s">
         <v>71</v>
@@ -6913,13 +6931,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Y57" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z57" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AA57" s="10" t="s">
         <v>74</v>
@@ -6937,9 +6955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6978,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P58">
         <v>2</v>
@@ -6993,7 +7011,7 @@
         <v>2</v>
       </c>
       <c r="U58" s="9" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="V58" t="s">
         <v>71</v>
@@ -7002,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Y58" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z58" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AA58" s="10" t="s">
         <v>74</v>
@@ -7026,9 +7044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7067,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -7082,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="V59" t="s">
         <v>71</v>
@@ -7091,13 +7109,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Y59" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z59" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AA59" s="10" t="s">
         <v>74</v>
@@ -7115,9 +7133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7156,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -7171,7 +7189,7 @@
         <v>2</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="V60" t="s">
         <v>71</v>
@@ -7180,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Y60" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z60" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AA60" s="10" t="s">
         <v>74</v>
@@ -7204,9 +7222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7245,7 +7263,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -7269,13 +7287,13 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Y61" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AA61" s="10" t="s">
         <v>74</v>
@@ -7293,9 +7311,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7334,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -7358,13 +7376,13 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Y62" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z62" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AA62" s="10" t="s">
         <v>74</v>
@@ -7382,9 +7400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7423,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P63">
         <v>2</v>
@@ -7447,13 +7465,13 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y63" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z63" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AA63" s="10" t="s">
         <v>74</v>
@@ -7471,9 +7489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7512,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -7536,13 +7554,13 @@
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Y64" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z64" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AA64" s="10" t="s">
         <v>74</v>
@@ -7560,9 +7578,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7601,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -7625,13 +7643,13 @@
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y65" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z65" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AA65" s="10" t="s">
         <v>74</v>
@@ -7649,9 +7667,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7690,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -7714,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y66" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z66" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AA66" s="10" t="s">
         <v>74</v>
@@ -7738,9 +7756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -7803,13 +7821,13 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Y67" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z67" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AA67" s="10" t="s">
         <v>74</v>
@@ -7827,9 +7845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -7868,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -7892,13 +7910,13 @@
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Y68" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AA68" s="10" t="s">
         <v>74</v>
@@ -7916,9 +7934,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -7957,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -7981,13 +7999,13 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Y69" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z69" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AA69" s="10" t="s">
         <v>74</v>
@@ -8005,9 +8023,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8046,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -8070,13 +8088,13 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Y70" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AA70" s="10" t="s">
         <v>74</v>
@@ -8094,9 +8112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -8135,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -8159,13 +8177,13 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Y71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z71" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AA71" s="10" t="s">
         <v>74</v>
@@ -8183,9 +8201,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8224,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P72">
         <v>2</v>
@@ -8248,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Y72" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z72" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AA72" s="10" t="s">
         <v>74</v>
@@ -8272,9 +8290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -8313,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -8337,13 +8355,13 @@
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Y73" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z73" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AA73" s="10" t="s">
         <v>74</v>
@@ -8361,9 +8379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8402,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P74">
         <v>2</v>
@@ -8426,13 +8444,13 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Y74" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z74" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AA74" s="10" t="s">
         <v>74</v>
@@ -8450,9 +8468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8491,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -8515,13 +8533,13 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Y75" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z75" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AA75" s="10" t="s">
         <v>74</v>
@@ -8539,9 +8557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8580,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P76">
         <v>2</v>
@@ -8604,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Y76" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z76" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AA76" s="10" t="s">
         <v>74</v>
@@ -8628,9 +8646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8669,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -8693,13 +8711,13 @@
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Y77" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z77" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AA77" s="10" t="s">
         <v>74</v>
@@ -8717,9 +8735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -8758,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -8782,13 +8800,13 @@
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Y78" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z78" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AA78" s="10" t="s">
         <v>74</v>
@@ -8806,9 +8824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -8847,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -8871,13 +8889,13 @@
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Y79" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AA79" s="10" t="s">
         <v>74</v>
@@ -8895,9 +8913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8936,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -8960,13 +8978,13 @@
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Y80" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z80" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AA80" s="10" t="s">
         <v>74</v>
@@ -8984,9 +9002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -9025,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -9049,13 +9067,13 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="Y81" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z81" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AA81" s="10" t="s">
         <v>74</v>
@@ -9073,9 +9091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -9114,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P82">
         <v>2</v>
@@ -9138,13 +9156,13 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Y82" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z82" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AA82" s="10" t="s">
         <v>74</v>
@@ -9162,9 +9180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -9203,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -9227,13 +9245,13 @@
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Y83" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z83" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AA83" s="10" t="s">
         <v>74</v>
@@ -9251,9 +9269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -9292,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -9316,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Y84" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z84" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AA84" s="10" t="s">
         <v>74</v>
@@ -9340,9 +9358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -9381,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -9405,13 +9423,13 @@
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Y85" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AA85" s="10" t="s">
         <v>74</v>
@@ -9429,9 +9447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -9470,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P86">
         <v>2</v>
@@ -9494,13 +9512,13 @@
         <v>0</v>
       </c>
       <c r="X86" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Y86" s="9" t="s">
         <v>73</v>
       </c>
       <c r="Z86" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AA86" s="10" t="s">
         <v>74</v>
@@ -9518,10 +9536,100 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>341</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>342</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>20</v>
+      </c>
+      <c r="R87" t="s">
+        <v>69</v>
+      </c>
+      <c r="T87">
+        <v>2</v>
+      </c>
+      <c r="U87" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="V87" t="s">
+        <v>71</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y87" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA87" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AE7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AE8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9539,12 +9647,12 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9636,7 +9744,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -9728,7 +9836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -9820,7 +9928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -9912,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -10004,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -10096,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -10188,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:30" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -10280,67 +10388,68 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7">

--- a/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/NPC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -20,27 +15,19 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Item" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Item.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400">
   <si>
     <t>Id</t>
   </si>
@@ -165,6 +152,9 @@
     <t>Ref</t>
   </si>
   <si>
+    <t>Upload</t>
+  </si>
+  <si>
     <t>Desc</t>
   </si>
   <si>
@@ -1237,17 +1227,19 @@
   </si>
   <si>
     <t>BUFF免疫开关</t>
-  </si>
-  <si>
-    <t>Upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1262,12 +1254,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1286,8 +1424,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1411,9 +1735,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,13 +2018,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1472,20 +2086,12 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1817,33 +2423,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="48.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="48.8166666666667" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="7" max="8" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.8166666666667" customWidth="1"/>
+    <col min="7" max="8" width="14.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" customWidth="1"/>
+    <col min="11" max="11" width="13.8166666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.6333333333333" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:31">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1938,7 +2545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" spans="1:31">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -2033,7 +2640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:31">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2128,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:31">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -2223,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:31">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -2318,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:31">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -2413,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" spans="1:31">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -2508,9 +3115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" s="3" customFormat="1" spans="1:31">
       <c r="A8" s="7" t="s">
-        <v>399</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>0</v>
@@ -2603,89 +3210,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" s="4" customFormat="1" ht="41.25" spans="1:31">
       <c r="A9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2724,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -2733,31 +3340,31 @@
         <v>20</v>
       </c>
       <c r="R10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T10">
         <v>2</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2772,9 +3379,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2813,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2822,32 +3429,32 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T11">
         <v>2</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="AB11">
         <v>0</v>
       </c>
@@ -2861,9 +3468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2902,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2911,31 +3518,31 @@
         <v>20</v>
       </c>
       <c r="R12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2950,9 +3557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2991,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -3000,31 +3607,31 @@
         <v>20</v>
       </c>
       <c r="R13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3039,9 +3646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3080,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -3089,31 +3696,31 @@
         <v>20</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3128,9 +3735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3169,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3178,31 +3785,31 @@
         <v>20</v>
       </c>
       <c r="R15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3217,9 +3824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3258,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -3267,31 +3874,31 @@
         <v>20</v>
       </c>
       <c r="R16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T16">
         <v>2</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="V16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3306,9 +3913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31">
       <c r="A17" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3347,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -3356,31 +3963,31 @@
         <v>20</v>
       </c>
       <c r="R17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T17">
         <v>2</v>
       </c>
       <c r="U17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="V17" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="V17" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="AA17" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3395,9 +4002,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31">
       <c r="A18" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3436,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3445,31 +4052,31 @@
         <v>20</v>
       </c>
       <c r="R18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T18">
         <v>2</v>
       </c>
       <c r="U18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="V18" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="V18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y18" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z18" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="AA18" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3484,9 +4091,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31">
       <c r="A19" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3525,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -3534,31 +4141,31 @@
         <v>20</v>
       </c>
       <c r="R19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="U19" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z19" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="V19" t="s">
-        <v>71</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="AA19" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19">
         <v>0</v>
@@ -3573,9 +4180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31">
       <c r="A20" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3614,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -3623,31 +4230,31 @@
         <v>20</v>
       </c>
       <c r="R20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V20" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z20" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="V20" t="s">
-        <v>71</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z20" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="AA20" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3662,9 +4269,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31">
       <c r="A21" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3703,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -3712,31 +4319,31 @@
         <v>20</v>
       </c>
       <c r="R21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="V21" t="s">
+        <v>72</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z21" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="V21" t="s">
-        <v>71</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="AA21" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -3751,9 +4358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3792,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3801,31 +4408,31 @@
         <v>20</v>
       </c>
       <c r="R22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="V22" t="s">
+        <v>72</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="V22" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="AA22" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -3840,9 +4447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31">
       <c r="A23" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3881,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -3890,31 +4497,31 @@
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
       <c r="U23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="V23" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="V23" t="s">
-        <v>71</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>117</v>
-      </c>
       <c r="AA23" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -3929,9 +4536,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31">
       <c r="A24" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3970,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3979,31 +4586,31 @@
         <v>20</v>
       </c>
       <c r="R24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T24">
         <v>2</v>
       </c>
       <c r="U24" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="V24" t="s">
+        <v>72</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V24" t="s">
-        <v>71</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="AA24" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -4018,9 +4625,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31">
       <c r="A25" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4059,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -4068,87 +4675,87 @@
         <v>20</v>
       </c>
       <c r="R25" t="s">
+        <v>70</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="V25" t="s">
+        <v>72</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>69</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="V25" t="s">
-        <v>71</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z25" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA25" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>68</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -4157,87 +4764,87 @@
         <v>20</v>
       </c>
       <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V26" t="s">
+        <v>72</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>69</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="V26" t="s">
-        <v>71</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>68</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -4246,87 +4853,87 @@
         <v>20</v>
       </c>
       <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="V27" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
         <v>69</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="V27" t="s">
-        <v>71</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z27" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>68</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -4335,87 +4942,87 @@
         <v>20</v>
       </c>
       <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="V28" t="s">
+        <v>72</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>69</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="V28" t="s">
-        <v>71</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>68</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -4424,31 +5031,31 @@
         <v>20</v>
       </c>
       <c r="R29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T29">
         <v>2</v>
       </c>
       <c r="U29" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="V29" t="s">
+        <v>72</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z29" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="V29" t="s">
-        <v>71</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z29" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="AA29" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4463,9 +5070,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4504,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -4513,31 +5120,31 @@
         <v>20</v>
       </c>
       <c r="R30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -4552,9 +5159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4593,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -4602,31 +5209,31 @@
         <v>20</v>
       </c>
       <c r="R31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T31">
         <v>2</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -4641,9 +5248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4682,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -4691,31 +5298,31 @@
         <v>20</v>
       </c>
       <c r="R32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB32">
         <v>0</v>
@@ -4730,9 +5337,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4771,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -4780,31 +5387,31 @@
         <v>20</v>
       </c>
       <c r="R33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4819,9 +5426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4860,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -4869,31 +5476,31 @@
         <v>20</v>
       </c>
       <c r="R34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T34">
         <v>2</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4908,9 +5515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4949,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -4958,31 +5565,31 @@
         <v>20</v>
       </c>
       <c r="R35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T35">
         <v>2</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -4997,9 +5604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -5038,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -5047,31 +5654,31 @@
         <v>20</v>
       </c>
       <c r="R36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T36">
         <v>2</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -5086,9 +5693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5127,7 +5734,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -5136,31 +5743,31 @@
         <v>20</v>
       </c>
       <c r="R37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="V37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -5175,9 +5782,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5216,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -5225,31 +5832,31 @@
         <v>20</v>
       </c>
       <c r="R38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T38">
         <v>2</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="V38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB38">
         <v>0</v>
@@ -5264,9 +5871,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5305,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -5314,31 +5921,31 @@
         <v>20</v>
       </c>
       <c r="R39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5353,9 +5960,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5394,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -5403,31 +6010,31 @@
         <v>20</v>
       </c>
       <c r="R40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T40">
         <v>2</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -5442,9 +6049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5483,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -5492,31 +6099,31 @@
         <v>20</v>
       </c>
       <c r="R41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5531,9 +6138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5572,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -5581,31 +6188,31 @@
         <v>20</v>
       </c>
       <c r="R42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Y42" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB42">
         <v>0</v>
@@ -5620,9 +6227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5661,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -5670,31 +6277,31 @@
         <v>20</v>
       </c>
       <c r="R43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T43">
         <v>2</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W43">
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5709,9 +6316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5750,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -5759,31 +6366,31 @@
         <v>20</v>
       </c>
       <c r="R44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T44">
         <v>2</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="V44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y44" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5798,9 +6405,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5839,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -5848,31 +6455,31 @@
         <v>20</v>
       </c>
       <c r="R45" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T45">
         <v>2</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="V45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5887,9 +6494,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5928,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -5937,31 +6544,31 @@
         <v>20</v>
       </c>
       <c r="R46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T46">
         <v>2</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="V46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W46">
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -5976,9 +6583,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6017,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -6026,31 +6633,31 @@
         <v>20</v>
       </c>
       <c r="R47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T47">
         <v>2</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W47">
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA47" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6065,9 +6672,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6106,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -6115,31 +6722,31 @@
         <v>20</v>
       </c>
       <c r="R48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T48">
         <v>2</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W48">
         <v>0</v>
       </c>
       <c r="X48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y48" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA48" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -6154,9 +6761,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6195,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -6204,31 +6811,31 @@
         <v>20</v>
       </c>
       <c r="R49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T49">
         <v>2</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="V49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y49" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA49" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6243,9 +6850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6284,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -6293,31 +6900,31 @@
         <v>20</v>
       </c>
       <c r="R50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T50">
         <v>2</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W50">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y50" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA50" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6332,9 +6939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6373,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -6382,31 +6989,31 @@
         <v>20</v>
       </c>
       <c r="R51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T51">
         <v>2</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="V51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W51">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Y51" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA51" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6421,9 +7028,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6462,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P52">
         <v>2</v>
@@ -6471,31 +7078,31 @@
         <v>20</v>
       </c>
       <c r="R52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T52">
         <v>2</v>
       </c>
       <c r="U52" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="V52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W52">
         <v>0</v>
       </c>
       <c r="X52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y52" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AA52" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6510,9 +7117,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6551,7 +7158,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P53">
         <v>2</v>
@@ -6560,31 +7167,31 @@
         <v>20</v>
       </c>
       <c r="R53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T53">
         <v>2</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="V53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AA53" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB53">
         <v>0</v>
@@ -6599,9 +7206,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -6640,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P54">
         <v>2</v>
@@ -6649,31 +7256,31 @@
         <v>20</v>
       </c>
       <c r="R54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T54">
         <v>2</v>
       </c>
       <c r="U54" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="V54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W54">
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA54" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB54">
         <v>0</v>
@@ -6688,9 +7295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -6729,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P55">
         <v>2</v>
@@ -6738,31 +7345,31 @@
         <v>20</v>
       </c>
       <c r="R55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="V55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y55" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA55" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB55">
         <v>0</v>
@@ -6777,9 +7384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -6818,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P56">
         <v>2</v>
@@ -6827,31 +7434,31 @@
         <v>20</v>
       </c>
       <c r="R56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
       <c r="U56" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="V56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y56" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA56" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -6866,9 +7473,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -6907,7 +7514,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P57">
         <v>2</v>
@@ -6916,31 +7523,31 @@
         <v>20</v>
       </c>
       <c r="R57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T57">
         <v>2</v>
       </c>
       <c r="U57" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="V57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W57">
         <v>0</v>
       </c>
       <c r="X57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Y57" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA57" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -6955,9 +7562,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6996,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P58">
         <v>2</v>
@@ -7005,31 +7612,31 @@
         <v>20</v>
       </c>
       <c r="R58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T58">
         <v>2</v>
       </c>
       <c r="U58" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W58">
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y58" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA58" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7044,9 +7651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -7085,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P59">
         <v>2</v>
@@ -7094,31 +7701,31 @@
         <v>20</v>
       </c>
       <c r="R59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W59">
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Y59" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA59" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB59">
         <v>0</v>
@@ -7133,9 +7740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -7174,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P60">
         <v>2</v>
@@ -7183,31 +7790,31 @@
         <v>20</v>
       </c>
       <c r="R60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y60" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA60" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7222,9 +7829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -7263,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P61">
         <v>2</v>
@@ -7272,31 +7879,31 @@
         <v>20</v>
       </c>
       <c r="R61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T61">
         <v>2</v>
       </c>
       <c r="U61" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W61">
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y61" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA61" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7311,9 +7918,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -7352,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P62">
         <v>2</v>
@@ -7361,31 +7968,31 @@
         <v>20</v>
       </c>
       <c r="R62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y62" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA62" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7400,9 +8007,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -7441,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P63">
         <v>2</v>
@@ -7450,31 +8057,31 @@
         <v>20</v>
       </c>
       <c r="R63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Y63" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA63" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7489,9 +8096,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -7530,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P64">
         <v>2</v>
@@ -7539,31 +8146,31 @@
         <v>20</v>
       </c>
       <c r="R64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W64">
         <v>0</v>
       </c>
       <c r="X64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y64" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA64" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -7578,9 +8185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -7619,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P65">
         <v>2</v>
@@ -7628,31 +8235,31 @@
         <v>20</v>
       </c>
       <c r="R65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W65">
         <v>0</v>
       </c>
       <c r="X65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y65" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA65" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -7667,9 +8274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -7708,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P66">
         <v>2</v>
@@ -7717,31 +8324,31 @@
         <v>20</v>
       </c>
       <c r="R66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T66">
         <v>2</v>
       </c>
       <c r="U66" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W66">
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Y66" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA66" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -7756,9 +8363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -7797,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P67">
         <v>2</v>
@@ -7806,31 +8413,31 @@
         <v>20</v>
       </c>
       <c r="R67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W67">
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y67" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA67" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -7845,9 +8452,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -7886,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P68">
         <v>2</v>
@@ -7895,31 +8502,31 @@
         <v>20</v>
       </c>
       <c r="R68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W68">
         <v>0</v>
       </c>
       <c r="X68" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Y68" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA68" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -7934,9 +8541,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -7975,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P69">
         <v>2</v>
@@ -7984,31 +8591,31 @@
         <v>20</v>
       </c>
       <c r="R69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T69">
         <v>2</v>
       </c>
       <c r="U69" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W69">
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y69" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z69" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA69" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -8023,9 +8630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -8064,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P70">
         <v>2</v>
@@ -8073,31 +8680,31 @@
         <v>20</v>
       </c>
       <c r="R70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T70">
         <v>2</v>
       </c>
       <c r="U70" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y70" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA70" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -8112,9 +8719,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -8153,7 +8760,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P71">
         <v>2</v>
@@ -8162,31 +8769,31 @@
         <v>20</v>
       </c>
       <c r="R71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T71">
         <v>2</v>
       </c>
       <c r="U71" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W71">
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Y71" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA71" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -8201,9 +8808,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -8242,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P72">
         <v>2</v>
@@ -8251,31 +8858,31 @@
         <v>20</v>
       </c>
       <c r="R72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y72" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z72" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA72" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB72">
         <v>0</v>
@@ -8290,9 +8897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -8331,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P73">
         <v>2</v>
@@ -8340,31 +8947,31 @@
         <v>20</v>
       </c>
       <c r="R73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T73">
         <v>2</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y73" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA73" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB73">
         <v>0</v>
@@ -8379,9 +8986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -8420,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P74">
         <v>2</v>
@@ -8429,31 +9036,31 @@
         <v>20</v>
       </c>
       <c r="R74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W74">
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y74" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA74" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -8468,9 +9075,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -8509,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P75">
         <v>2</v>
@@ -8518,31 +9125,31 @@
         <v>20</v>
       </c>
       <c r="R75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T75">
         <v>2</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA75" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -8557,9 +9164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -8598,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P76">
         <v>2</v>
@@ -8607,31 +9214,31 @@
         <v>20</v>
       </c>
       <c r="R76" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T76">
         <v>2</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W76">
         <v>0</v>
       </c>
       <c r="X76" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y76" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z76" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA76" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -8646,9 +9253,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -8687,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P77">
         <v>2</v>
@@ -8696,31 +9303,31 @@
         <v>20</v>
       </c>
       <c r="R77" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T77">
         <v>2</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Y77" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z77" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA77" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB77">
         <v>0</v>
@@ -8735,9 +9342,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -8776,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P78">
         <v>2</v>
@@ -8785,31 +9392,31 @@
         <v>20</v>
       </c>
       <c r="R78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T78">
         <v>2</v>
       </c>
       <c r="U78" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W78">
         <v>0</v>
       </c>
       <c r="X78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y78" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AA78" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB78">
         <v>0</v>
@@ -8824,9 +9431,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -8865,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P79">
         <v>2</v>
@@ -8874,31 +9481,31 @@
         <v>20</v>
       </c>
       <c r="R79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T79">
         <v>2</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W79">
         <v>0</v>
       </c>
       <c r="X79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y79" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA79" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB79">
         <v>0</v>
@@ -8913,9 +9520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -8954,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P80">
         <v>2</v>
@@ -8963,31 +9570,31 @@
         <v>20</v>
       </c>
       <c r="R80" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T80">
         <v>2</v>
       </c>
       <c r="U80" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y80" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA80" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -9002,9 +9609,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -9043,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P81">
         <v>2</v>
@@ -9052,31 +9659,31 @@
         <v>20</v>
       </c>
       <c r="R81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T81">
         <v>2</v>
       </c>
       <c r="U81" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y81" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z81" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AA81" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB81">
         <v>0</v>
@@ -9091,9 +9698,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -9132,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P82">
         <v>2</v>
@@ -9141,31 +9748,31 @@
         <v>20</v>
       </c>
       <c r="R82" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T82">
         <v>2</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y82" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA82" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB82">
         <v>0</v>
@@ -9180,9 +9787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -9221,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P83">
         <v>2</v>
@@ -9230,31 +9837,31 @@
         <v>20</v>
       </c>
       <c r="R83" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y83" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA83" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB83">
         <v>0</v>
@@ -9269,9 +9876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -9310,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P84">
         <v>2</v>
@@ -9319,31 +9926,31 @@
         <v>20</v>
       </c>
       <c r="R84" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y84" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z84" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA84" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB84">
         <v>0</v>
@@ -9358,9 +9965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -9399,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="O85" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P85">
         <v>2</v>
@@ -9408,31 +10015,31 @@
         <v>20</v>
       </c>
       <c r="R85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T85">
         <v>2</v>
       </c>
       <c r="U85" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W85">
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y85" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z85" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA85" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB85">
         <v>0</v>
@@ -9447,9 +10054,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -9488,7 +10095,7 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P86">
         <v>2</v>
@@ -9497,31 +10104,31 @@
         <v>20</v>
       </c>
       <c r="R86" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T86">
         <v>2</v>
       </c>
       <c r="U86" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W86">
         <v>0</v>
       </c>
       <c r="X86" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y86" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z86" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AA86" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB86">
         <v>0</v>
@@ -9536,9 +10143,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -9577,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P87">
         <v>2</v>
@@ -9586,31 +10193,31 @@
         <v>20</v>
       </c>
       <c r="R87" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T87">
         <v>2</v>
       </c>
       <c r="U87" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W87">
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y87" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z87" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA87" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB87">
         <v>0</v>
@@ -9626,125 +10233,125 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AE8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:30">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:30">
       <c r="A2" s="6" t="s">
         <v>31</v>
       </c>
@@ -9836,7 +10443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:30">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -9928,7 +10535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="2" customFormat="1" spans="1:30">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
@@ -10020,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" s="2" customFormat="1" spans="1:30">
       <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
@@ -10112,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" s="2" customFormat="1" spans="1:30">
       <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
@@ -10204,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="3" customFormat="1" spans="1:30">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -10296,167 +10903,258 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:30">
+      <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="68.25" spans="1:30">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="S9" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="X8" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="Z8" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="AA8" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AA9" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="AC8" s="4" t="s">
+      <c r="AB9" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD9" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="9"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="9"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="9"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="9"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="9"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="9"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="9"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="9"/>
     </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:I7 J7:AD7 B8:AD8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
